--- a/FieldData/2015/xlsx_analysis/11-013 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/11-013 Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1C0BECD3322B164D31AA1EB8E87EA01D72565F44" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C67322-F097-4199-B99D-D6A181C4C733}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_1C0BECD3322B164D31AA1EB8E87EA01D72565F44" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3877F5-AE3D-4E1C-9B60-FD7F9C08E104}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1050" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="196">
   <si>
     <t>PLOT</t>
   </si>
@@ -432,9 +432,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>moss</t>
   </si>
   <si>
@@ -648,6 +645,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2118,9 +2121,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2172,6 +2172,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2229,7 +2232,7 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3713,13 +3716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO171"/>
+  <dimension ref="A1:IO162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3737,29 +3740,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="141" t="s">
+      <c r="G1" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="H1" s="121" t="s">
         <v>193</v>
-      </c>
-      <c r="H1" s="141" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3767,22 +3770,22 @@
         <v>57</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="33">
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F2" s="36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="37"/>
     </row>
@@ -3791,22 +3794,22 @@
         <v>57</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="33">
         <v>1</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F3" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="H3" s="37"/>
     </row>
@@ -3815,22 +3818,22 @@
         <v>57</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="33">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>70</v>
+      <c r="D4" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="F4" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -3839,22 +3842,22 @@
         <v>57</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="33">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F5" s="36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="37"/>
     </row>
@@ -3863,22 +3866,22 @@
         <v>57</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>121</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="F6" s="36">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="37"/>
     </row>
@@ -3887,48 +3890,46 @@
         <v>57</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="33">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F7" s="36">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="37">
-        <v>94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F8" s="36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="37"/>
     </row>
@@ -3937,20 +3938,23 @@
         <v>57</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" s="33">
         <v>1</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="E9" s="35" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F9" s="36">
-        <f>100-SUM(F2:F8)</f>
-        <v>53</v>
-      </c>
-      <c r="G9" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3958,568 +3962,574 @@
         <v>57</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" s="33">
         <v>1</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="36">
-        <v>1</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="37"/>
+      <c r="D10" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="37">
+        <v>6</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" s="33">
         <v>1</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="36">
-        <v>40</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="37"/>
+        <v>128</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12" s="33">
         <v>1</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="37"/>
+        <v>135</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13" s="33">
         <v>1</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="37">
+        <v>5</v>
+      </c>
+      <c r="G13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14" s="33">
         <v>1</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="D14" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="37">
         <v>0.5</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="37"/>
+      <c r="G14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C15" s="33">
         <v>1</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="36">
-        <v>60</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="37"/>
+      <c r="D15" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" s="33">
         <v>1</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="36">
-        <v>57</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="37"/>
+        <v>117</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C17" s="33">
         <v>1</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="36">
-        <v>2</v>
-      </c>
-      <c r="G17" s="31" t="s">
+      <c r="D17" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="37">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="34"/>
+        <v>58</v>
+      </c>
+      <c r="C18" s="42">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="E18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="36">
-        <v>41</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="F18" s="37">
+        <v>7</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="33">
-        <v>1</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="36">
-        <v>5</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="42">
+        <v>2</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="37">
+        <v>3</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="33">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="42">
+        <v>2</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="36">
+        <v>89</v>
+      </c>
+      <c r="F20" s="37">
         <v>10</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="37"/>
+      <c r="G20" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="33">
+        <v>60</v>
+      </c>
+      <c r="C21" s="42">
         <v>1</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="36">
-        <v>3</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="37"/>
+      <c r="D21" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="33">
+        <v>60</v>
+      </c>
+      <c r="C22" s="42">
         <v>1</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="36">
-        <v>28</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="37">
-        <v>129</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="33">
+        <v>61</v>
+      </c>
+      <c r="C23" s="42">
         <v>1</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>81</v>
+      <c r="D23" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="36">
+        <v>78</v>
+      </c>
+      <c r="F23" s="37">
         <v>1</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="37"/>
+      <c r="G23" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="33">
+        <v>62</v>
+      </c>
+      <c r="C24" s="42">
         <v>1</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="36">
-        <v>4</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="37"/>
+        <v>180</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="43">
+        <v>1</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="33">
+      <c r="B25" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="42">
         <v>1</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="36">
+      <c r="D25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="43">
         <v>1</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="37"/>
+      <c r="G25" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="33">
+      <c r="B26" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="42">
         <v>1</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="E26" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="36">
-        <f>100-SUM(F19:F25)</f>
-        <v>48</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="37"/>
+        <v>89</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="33">
+      <c r="B27" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="42">
         <v>1</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="36">
-        <v>15</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="37">
-        <v>124</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="43">
+        <v>5</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="33">
+      <c r="B28" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="42">
         <v>1</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="36">
-        <v>15</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="37">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="43">
+        <v>1</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="33">
+      <c r="B29" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="42">
         <v>1</v>
       </c>
-      <c r="D29" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="36">
-        <v>2</v>
-      </c>
-      <c r="G29" s="31" t="s">
+      <c r="D29" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="33">
+      <c r="B30" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="42">
         <v>1</v>
       </c>
-      <c r="D30" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H30" s="37"/>
+      <c r="D30" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="43">
+        <v>1</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="33">
+      <c r="B31" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="42">
         <v>1</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="36">
-        <v>9</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="37"/>
+        <v>88</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" s="33">
         <v>1</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="E32" s="35" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F32" s="36">
-        <f>100-SUM(F27:F31)</f>
-        <v>58.5</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="37">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" s="33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F33" s="36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="H33" s="37"/>
     </row>
@@ -4528,22 +4538,22 @@
         <v>57</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F34" s="36">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H34" s="37"/>
     </row>
@@ -4552,22 +4562,22 @@
         <v>57</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="F35" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H35" s="37"/>
     </row>
@@ -4576,22 +4586,22 @@
         <v>57</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="33">
-        <v>2</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="F36" s="36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="37"/>
     </row>
@@ -4600,22 +4610,22 @@
         <v>57</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="33">
-        <v>2</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="F37" s="36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="37"/>
     </row>
@@ -4624,22 +4634,22 @@
         <v>57</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" s="33">
-        <v>2</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="F38" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H38" s="37"/>
     </row>
@@ -4648,222 +4658,232 @@
         <v>57</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" s="33">
-        <v>2</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="37">
+        <v>3</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C40" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="36">
-        <v>6</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="37">
-        <v>46</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="37">
+        <v>12</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C41" s="33">
-        <v>2</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="37">
+        <v>5</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C42" s="33">
-        <v>2</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="36">
-        <v>77</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="33">
-        <v>2</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="C43" s="42">
+        <v>1</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="37">
+        <v>1</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="33">
-        <v>2</v>
+      <c r="B44" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="42">
+        <v>1</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="36">
-        <v>1</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="43">
+        <v>4</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="33">
-        <v>2</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="37"/>
+      <c r="B45" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="42">
+        <v>1</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="43">
+        <v>6</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="33">
-        <v>2</v>
+      <c r="B46" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="42">
+        <v>1</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="36">
-        <v>47</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="43">
+        <v>4</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="33">
+      <c r="B47" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="42">
+        <v>1</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="43">
         <v>2</v>
       </c>
-      <c r="D47" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="36">
-        <v>4</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="37"/>
+      <c r="G47" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C48" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F48" s="36">
         <v>1</v>
@@ -4878,19 +4898,19 @@
         <v>57</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49" s="33">
-        <v>2</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="F49" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>6</v>
@@ -4902,22 +4922,22 @@
         <v>57</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C50" s="33">
+        <v>1</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="36">
         <v>2</v>
       </c>
-      <c r="D50" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="36">
-        <v>0.5</v>
-      </c>
       <c r="G50" s="31" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="H50" s="37"/>
     </row>
@@ -4926,41 +4946,49 @@
         <v>57</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C51" s="33">
-        <v>2</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F51" s="36">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H51" s="37"/>
+      <c r="H51" s="37">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C52" s="33">
-        <v>2</v>
-      </c>
-      <c r="D52" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="E52" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="F52" s="36">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="H52" s="37"/>
     </row>
     <row r="53" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4968,48 +4996,46 @@
         <v>57</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C53" s="33">
-        <v>2</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="F53" s="36">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="37">
-        <v>49</v>
-      </c>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C54" s="33">
-        <v>2</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F54" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>6</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>7</v>
       </c>
       <c r="H54" s="37"/>
     </row>
@@ -5018,19 +5044,19 @@
         <v>57</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C55" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F55" s="36">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>6</v>
@@ -5042,17 +5068,23 @@
         <v>57</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C56" s="33">
-        <v>2</v>
-      </c>
-      <c r="D56" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="E56" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="F56" s="36">
+        <v>10</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="H56" s="37"/>
     </row>
     <row r="57" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5060,46 +5092,48 @@
         <v>57</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C57" s="33">
         <v>1</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F57" s="36">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="37"/>
+      <c r="H57" s="37">
+        <v>129</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C58" s="33">
         <v>1</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F58" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="H58" s="37"/>
     </row>
@@ -5108,22 +5142,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C59" s="33">
         <v>1</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F59" s="36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H59" s="37"/>
     </row>
@@ -5132,436 +5166,447 @@
         <v>57</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C60" s="33">
         <v>1</v>
       </c>
-      <c r="D60" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>54</v>
+      <c r="D60" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="F60" s="36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="37">
-        <v>61</v>
-      </c>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61" s="33">
         <v>1</v>
       </c>
-      <c r="D61" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>69</v>
+      <c r="D61" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="F61" s="36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="H61" s="37">
+        <v>124</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C62" s="33">
         <v>1</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="37">
-        <v>2</v>
-      </c>
-      <c r="G62" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="36">
+        <v>15</v>
+      </c>
+      <c r="G62" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="37">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C63" s="33">
         <v>1</v>
       </c>
-      <c r="D63" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="37">
+      <c r="D63" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="36">
+        <v>9</v>
+      </c>
+      <c r="G63" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="42"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C64" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F64" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G64" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="36">
+        <v>20</v>
+      </c>
+      <c r="G64" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C65" s="33">
+        <v>2</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" s="36">
         <v>1</v>
       </c>
-      <c r="D65" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="37">
-        <v>1</v>
-      </c>
-      <c r="G65" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="42"/>
+      <c r="G65" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C66" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="37">
-        <v>1</v>
-      </c>
-      <c r="G66" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="42"/>
+        <v>94</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C67" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="37">
-        <v>5</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C68" s="33">
-        <v>1</v>
-      </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F68" s="37">
-        <f>100-SUM(F57:F67)</f>
-        <v>45.5</v>
-      </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="36">
+        <v>6</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="37">
+        <v>46</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C69" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="37">
-        <v>4</v>
-      </c>
-      <c r="G69" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H69" s="42"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" s="33">
+        <v>2</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="36">
         <v>1</v>
       </c>
-      <c r="D70" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="37">
-        <v>3</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H70" s="42"/>
+      <c r="G70" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="37"/>
     </row>
     <row r="71" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C71" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="37">
-        <v>3</v>
-      </c>
-      <c r="G71" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="36">
+        <v>4</v>
+      </c>
+      <c r="G71" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="42"/>
+      <c r="H71" s="37"/>
     </row>
     <row r="72" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C72" s="33">
+        <v>2</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="36">
         <v>1</v>
       </c>
-      <c r="D72" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="42"/>
+      <c r="H72" s="37"/>
     </row>
     <row r="73" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C73" s="33">
+        <v>2</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="36">
         <v>1</v>
       </c>
-      <c r="D73" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G73" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="42"/>
+      <c r="G73" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="37"/>
     </row>
     <row r="74" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C74" s="33">
-        <v>1</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="37">
-        <v>68</v>
-      </c>
-      <c r="G74" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="36">
+        <v>2</v>
+      </c>
+      <c r="G74" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="31">
-        <v>45</v>
-      </c>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C75" s="33">
-        <v>1</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G75" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="36">
+        <v>30</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="37">
+        <v>49</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C76" s="33">
-        <v>1</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G76" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="H76" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="36">
+        <v>8</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" s="33">
         <v>1</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="E77" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F77" s="37">
-        <v>7</v>
-      </c>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
+      <c r="D77" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F77" s="36">
+        <v>17</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="37"/>
     </row>
     <row r="78" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="33">
         <v>1</v>
@@ -5569,17 +5614,17 @@
       <c r="D78" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="37">
-        <v>5</v>
-      </c>
-      <c r="G78" s="42" t="s">
+      <c r="F78" s="36">
+        <v>9</v>
+      </c>
+      <c r="G78" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H78" s="31">
-        <v>72</v>
+      <c r="H78" s="37">
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,74 +5632,70 @@
         <v>57</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C79" s="33">
         <v>1</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F79" s="37">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G79" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H79" s="31">
-        <v>94</v>
-      </c>
+      <c r="H79" s="42"/>
     </row>
     <row r="80" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80" s="33">
         <v>1</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="F80" s="37">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="G80" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H80" s="31">
-        <v>74</v>
-      </c>
+      <c r="H80" s="42"/>
     </row>
     <row r="81" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="33">
         <v>1</v>
       </c>
-      <c r="D81" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="49" t="s">
-        <v>69</v>
+      <c r="D81" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="F81" s="37">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="H81" s="42"/>
     </row>
@@ -5663,22 +5704,22 @@
         <v>57</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" s="33">
         <v>1</v>
       </c>
-      <c r="D82" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>70</v>
+      <c r="D82" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="F82" s="37">
         <v>3</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="H82" s="42"/>
     </row>
@@ -5687,164 +5728,173 @@
         <v>57</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83" s="33">
         <v>1</v>
       </c>
-      <c r="D83" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>121</v>
+      <c r="D83" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="F83" s="37">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="G83" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="31">
-        <v>29</v>
-      </c>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" s="33">
         <v>1</v>
       </c>
-      <c r="D84" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>82</v>
+      <c r="D84" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F84" s="37">
-        <v>0.5</v>
+        <v>68</v>
       </c>
       <c r="G84" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H84" s="42"/>
+      <c r="H84" s="31">
+        <v>45</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" s="33">
         <v>1</v>
       </c>
-      <c r="D85" s="34"/>
+      <c r="D85" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="E85" s="31" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="F85" s="37">
-        <f>100-SUM(F79:F84)</f>
-        <v>55.5</v>
+        <v>5</v>
       </c>
       <c r="G85" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="42"/>
+      <c r="H85" s="31">
+        <v>72</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" s="33">
         <v>1</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F86" s="37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G86" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="42"/>
+      <c r="H86" s="31">
+        <v>94</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" s="33">
         <v>1</v>
       </c>
-      <c r="D87" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>69</v>
+      <c r="D87" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="F87" s="37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G87" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H87" s="42"/>
+        <v>6</v>
+      </c>
+      <c r="H87" s="31">
+        <v>74</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" s="33">
         <v>1</v>
       </c>
-      <c r="D88" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88" s="39" t="s">
-        <v>70</v>
+      <c r="D88" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F88" s="37">
+        <v>9</v>
+      </c>
+      <c r="G88" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G88" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="42"/>
+      <c r="H88" s="31">
+        <v>29</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" s="33">
         <v>1</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F89" s="37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G89" s="42" t="s">
         <v>6</v>
@@ -5856,26 +5906,22 @@
         <v>57</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90" s="33">
         <v>1</v>
       </c>
-      <c r="D90" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E90" s="51" t="s">
-        <v>121</v>
+      <c r="D90" s="34"/>
+      <c r="E90" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="F90" s="37">
-        <v>20</v>
+        <v>55.5</v>
       </c>
       <c r="G90" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H90" s="31">
-        <v>36</v>
-      </c>
+      <c r="H90" s="42"/>
     </row>
     <row r="91" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
@@ -5888,13 +5934,13 @@
         <v>1</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="F91" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G91" s="42" t="s">
         <v>6</v>
@@ -5911,12 +5957,14 @@
       <c r="C92" s="33">
         <v>1</v>
       </c>
-      <c r="D92" s="34"/>
-      <c r="E92" s="31" t="s">
-        <v>135</v>
+      <c r="D92" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="F92" s="37">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G92" s="42" t="s">
         <v>6</v>
@@ -5933,19 +5981,21 @@
       <c r="C93" s="33">
         <v>1</v>
       </c>
-      <c r="D93" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>116</v>
+      <c r="D93" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F93" s="37">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G93" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H93" s="42"/>
+      <c r="H93" s="31">
+        <v>36</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
@@ -5958,16 +6008,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F94" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H94" s="42"/>
     </row>
@@ -5983,13 +6033,14 @@
       </c>
       <c r="D95" s="34"/>
       <c r="E95" s="31" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="F95" s="37">
-        <f>100-SUM(F86:F94)</f>
-        <v>31</v>
-      </c>
-      <c r="G95" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="H95" s="42"/>
     </row>
     <row r="96" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5997,19 +6048,19 @@
         <v>57</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" s="33">
         <v>1</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>56</v>
+        <v>115</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="F96" s="37">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G96" s="42" t="s">
         <v>6</v>
@@ -6026,14 +6077,18 @@
       <c r="C97" s="33">
         <v>1</v>
       </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="31" t="s">
-        <v>53</v>
+      <c r="D97" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="F97" s="37">
-        <v>96</v>
-      </c>
-      <c r="G97" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="H97" s="42"/>
     </row>
     <row r="98" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6147,16 +6202,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="E102" s="49" t="s">
-        <v>69</v>
+        <v>120</v>
+      </c>
+      <c r="E102" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F102" s="37">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="H102" s="42"/>
     </row>
@@ -6170,17 +6225,17 @@
       <c r="C103" s="33">
         <v>1</v>
       </c>
-      <c r="D103" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>21</v>
+      <c r="D103" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F103" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G103" s="42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H103" s="42"/>
     </row>
@@ -6189,19 +6244,19 @@
         <v>57</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" s="33">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C104" s="42">
+        <v>2</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E104" s="51" t="s">
-        <v>121</v>
+        <v>179</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="F104" s="37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G104" s="42" t="s">
         <v>6</v>
@@ -6213,19 +6268,23 @@
         <v>57</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="33">
-        <v>1</v>
-      </c>
-      <c r="D105" s="40"/>
-      <c r="E105" s="51" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="C105" s="42">
+        <v>2</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="F105" s="37">
-        <v>56</v>
-      </c>
-      <c r="G105" s="42"/>
+        <v>0.5</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="H105" s="42"/>
     </row>
     <row r="106" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6233,16 +6292,16 @@
         <v>57</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" s="33">
-        <v>1</v>
-      </c>
-      <c r="D106" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>130</v>
+        <v>58</v>
+      </c>
+      <c r="C106" s="42">
+        <v>2</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F106" s="37">
         <v>0.5</v>
@@ -6257,22 +6316,22 @@
         <v>57</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C107" s="42">
         <v>2</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="F107" s="37">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H107" s="42"/>
     </row>
@@ -6281,19 +6340,19 @@
         <v>57</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="42">
         <v>2</v>
       </c>
-      <c r="D108" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>118</v>
+      <c r="D108" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="F108" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G108" s="42" t="s">
         <v>6</v>
@@ -6305,22 +6364,22 @@
         <v>57</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C109" s="42">
         <v>2</v>
       </c>
-      <c r="D109" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="50" t="s">
-        <v>119</v>
+      <c r="D109" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="F109" s="37">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H109" s="42"/>
     </row>
@@ -6329,22 +6388,22 @@
         <v>57</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C110" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F110" s="37">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="H110" s="42"/>
     </row>
@@ -6353,19 +6412,19 @@
         <v>57</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C111" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="E111" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="F111" s="37">
-        <v>0.5</v>
+        <v>37</v>
       </c>
       <c r="G111" s="42" t="s">
         <v>6</v>
@@ -6377,19 +6436,19 @@
         <v>57</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C112" s="42">
-        <v>2</v>
-      </c>
-      <c r="D112" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E112" s="51" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="F112" s="37">
-        <v>0.5</v>
+        <v>53</v>
       </c>
       <c r="G112" s="42" t="s">
         <v>6</v>
@@ -6401,17 +6460,23 @@
         <v>57</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C113" s="42">
-        <v>2</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F113" s="37"/>
-      <c r="G113" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="D113" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="37">
+        <v>10</v>
+      </c>
+      <c r="G113" s="42" t="s">
+        <v>6</v>
+      </c>
       <c r="H113" s="42"/>
     </row>
     <row r="114" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6419,19 +6484,19 @@
         <v>57</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C114" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>121</v>
+        <v>83</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="F114" s="37">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G114" s="42" t="s">
         <v>6</v>
@@ -6443,19 +6508,19 @@
         <v>57</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C115" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115" s="35" t="s">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="F115" s="37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G115" s="42" t="s">
         <v>6</v>
@@ -6467,97 +6532,103 @@
         <v>57</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C116" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F116" s="37">
-        <v>10</v>
-      </c>
-      <c r="G116" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116" s="42"/>
+        <v>130</v>
+      </c>
+      <c r="F116" s="43">
+        <v>24</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="41"/>
     </row>
     <row r="117" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C117" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" s="43">
         <v>52</v>
       </c>
-      <c r="F117" s="37">
-        <v>5</v>
-      </c>
-      <c r="G117" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H117" s="42"/>
+      <c r="G117" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="41"/>
     </row>
     <row r="118" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="32" t="s">
-        <v>59</v>
+      <c r="B118" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C118" s="42">
-        <v>2</v>
-      </c>
-      <c r="D118" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G118" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F118" s="43">
+        <v>82</v>
+      </c>
+      <c r="G118" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="42"/>
+      <c r="H118" s="41"/>
     </row>
     <row r="119" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B119" s="32" t="s">
-        <v>59</v>
+      <c r="B119" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C119" s="42">
-        <v>2</v>
-      </c>
-      <c r="D119" s="40"/>
-      <c r="E119" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F119" s="43">
+        <v>1</v>
+      </c>
+      <c r="G119" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="41"/>
     </row>
     <row r="120" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B120" s="32" t="s">
-        <v>60</v>
+      <c r="B120" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C120" s="42">
         <v>1</v>
@@ -6565,23 +6636,23 @@
       <c r="D120" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E120" s="35" t="s">
+      <c r="E120" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F120" s="37">
-        <v>40</v>
-      </c>
-      <c r="G120" s="42" t="s">
+      <c r="F120" s="43">
+        <v>2</v>
+      </c>
+      <c r="G120" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H120" s="42"/>
+      <c r="H120" s="41"/>
     </row>
     <row r="121" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B121" s="32" t="s">
-        <v>60</v>
+      <c r="B121" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C121" s="42">
         <v>1</v>
@@ -6589,550 +6660,568 @@
       <c r="D121" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E121" s="51" t="s">
+      <c r="E121" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="F121" s="37">
-        <v>37</v>
-      </c>
-      <c r="G121" s="42" t="s">
+      <c r="F121" s="43">
+        <v>85</v>
+      </c>
+      <c r="G121" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H121" s="42"/>
+      <c r="H121" s="41"/>
     </row>
     <row r="122" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B122" s="32" t="s">
-        <v>60</v>
+      <c r="B122" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C122" s="42">
         <v>1</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F122" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G122" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="F122" s="43">
+        <v>2</v>
+      </c>
+      <c r="G122" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="45"/>
     </row>
     <row r="123" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B123" s="32" t="s">
-        <v>60</v>
+      <c r="B123" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="C123" s="42">
         <v>1</v>
       </c>
-      <c r="D123" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F123" s="37">
+      <c r="D123" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" s="43">
         <v>1</v>
       </c>
-      <c r="G123" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H123" s="42"/>
+      <c r="G123" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="45"/>
     </row>
     <row r="124" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B124" s="32" t="s">
-        <v>60</v>
+      <c r="B124" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="C124" s="42">
         <v>1</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E124" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F124" s="37">
-        <v>2</v>
-      </c>
-      <c r="G124" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H124" s="42"/>
+        <v>105</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F124" s="43">
+        <v>10</v>
+      </c>
+      <c r="G124" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="45"/>
     </row>
     <row r="125" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B125" s="32" t="s">
-        <v>60</v>
+      <c r="B125" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="C125" s="42">
         <v>1</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E125" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F125" s="37">
-        <v>1</v>
-      </c>
-      <c r="G125" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H125" s="42"/>
+        <v>129</v>
+      </c>
+      <c r="E125" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" s="43">
+        <v>7</v>
+      </c>
+      <c r="G125" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="45"/>
     </row>
     <row r="126" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B126" s="32" t="s">
-        <v>60</v>
+      <c r="B126" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="C126" s="42">
         <v>1</v>
       </c>
-      <c r="D126" s="34"/>
-      <c r="E126" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F126" s="37">
-        <v>21</v>
-      </c>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
+      <c r="D126" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F126" s="43">
+        <v>75</v>
+      </c>
+      <c r="G126" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="45"/>
     </row>
     <row r="127" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B127" s="32" t="s">
-        <v>61</v>
+      <c r="B127" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="C127" s="42">
         <v>1</v>
       </c>
       <c r="D127" s="34" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F127" s="37">
-        <v>53</v>
-      </c>
-      <c r="G127" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="G127" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H127" s="42"/>
+      <c r="H127" s="45"/>
     </row>
     <row r="128" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B128" s="32" t="s">
-        <v>61</v>
+      <c r="B128" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C128" s="42">
         <v>1</v>
       </c>
-      <c r="D128" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E128" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F128" s="37">
-        <v>10</v>
-      </c>
-      <c r="G128" s="42" t="s">
+      <c r="D128" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F128" s="43">
+        <v>26</v>
+      </c>
+      <c r="G128" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="42"/>
+      <c r="H128" s="45"/>
     </row>
     <row r="129" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B129" s="32" t="s">
-        <v>61</v>
+      <c r="B129" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C129" s="42">
         <v>1</v>
       </c>
-      <c r="D129" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E129" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F129" s="37">
-        <v>1</v>
-      </c>
-      <c r="G129" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="42"/>
+      <c r="D129" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F129" s="43">
+        <v>30</v>
+      </c>
+      <c r="G129" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="45"/>
     </row>
     <row r="130" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B130" s="32" t="s">
-        <v>61</v>
+      <c r="B130" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C130" s="42">
         <v>1</v>
       </c>
       <c r="D130" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E130" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F130" s="37">
-        <v>5</v>
-      </c>
-      <c r="G130" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E130" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" s="43">
+        <v>4</v>
+      </c>
+      <c r="G130" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="42"/>
+      <c r="H130" s="45"/>
     </row>
     <row r="131" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B131" s="32" t="s">
-        <v>61</v>
+      <c r="B131" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C131" s="42">
         <v>1</v>
       </c>
-      <c r="D131" s="34"/>
-      <c r="E131" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F131" s="37">
-        <v>35</v>
-      </c>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
+      <c r="D131" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" s="43">
+        <v>4</v>
+      </c>
+      <c r="G131" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="45"/>
     </row>
     <row r="132" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="32" t="s">
-        <v>62</v>
+      <c r="B132" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C132" s="42">
         <v>1</v>
       </c>
       <c r="D132" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F132" s="37">
-        <v>16</v>
-      </c>
-      <c r="G132" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="43">
+        <v>7</v>
+      </c>
+      <c r="G132" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H132" s="42"/>
+      <c r="H132" s="45"/>
     </row>
     <row r="133" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="32" t="s">
-        <v>62</v>
+      <c r="B133" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="C133" s="42">
         <v>1</v>
       </c>
       <c r="D133" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>130</v>
+        <v>181</v>
+      </c>
+      <c r="E133" s="50" t="s">
+        <v>126</v>
       </c>
       <c r="F133" s="43">
-        <v>24</v>
-      </c>
-      <c r="G133" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H133" s="41"/>
+      <c r="H133" s="45"/>
     </row>
     <row r="134" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="42">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C134" s="33">
+        <v>2</v>
       </c>
       <c r="D134" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E134" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="F134" s="43">
-        <v>1</v>
-      </c>
-      <c r="G134" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H134" s="41"/>
+        <v>100</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="37"/>
     </row>
     <row r="135" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C135" s="42">
+        <v>18</v>
+      </c>
+      <c r="C135" s="33">
         <v>1</v>
       </c>
-      <c r="D135" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E135" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F135" s="43">
-        <v>52</v>
-      </c>
-      <c r="G135" s="41" t="s">
+      <c r="D135" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G135" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H135" s="41"/>
+      <c r="H135" s="42"/>
     </row>
     <row r="136" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C136" s="42">
+        <v>8</v>
+      </c>
+      <c r="C136" s="33">
         <v>1</v>
       </c>
-      <c r="D136" s="34"/>
-      <c r="E136" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F136" s="43">
-        <v>10</v>
-      </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
+      <c r="D136" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E136" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F136" s="36">
+        <v>5</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H136" s="37"/>
     </row>
     <row r="137" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C137" s="42">
+        <v>13</v>
+      </c>
+      <c r="C137" s="33">
+        <v>2</v>
+      </c>
+      <c r="D137" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="36">
         <v>1</v>
       </c>
-      <c r="D137" s="34"/>
-      <c r="E137" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F137" s="43"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
+      <c r="G137" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H137" s="37"/>
     </row>
     <row r="138" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B138" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C138" s="42">
+      <c r="B138" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="33">
+        <v>2</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F138" s="36">
         <v>1</v>
       </c>
-      <c r="D138" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E138" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F138" s="43">
-        <v>82</v>
-      </c>
-      <c r="G138" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H138" s="41"/>
+      <c r="G138" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H138" s="37"/>
     </row>
     <row r="139" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B139" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C139" s="42">
+      <c r="B139" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="33">
         <v>1</v>
       </c>
       <c r="D139" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E139" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F139" s="43">
-        <v>1</v>
-      </c>
-      <c r="G139" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" s="41"/>
+        <v>102</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F139" s="36">
+        <v>10</v>
+      </c>
+      <c r="G139" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H139" s="37"/>
     </row>
     <row r="140" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B140" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C140" s="42">
+      <c r="B140" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="33">
         <v>1</v>
       </c>
-      <c r="D140" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E140" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F140" s="43">
-        <v>2</v>
-      </c>
-      <c r="G140" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="41"/>
+      <c r="D140" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F140" s="37">
+        <v>3</v>
+      </c>
+      <c r="G140" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H140" s="42"/>
     </row>
     <row r="141" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B141" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C141" s="42">
+      <c r="B141" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="33">
         <v>1</v>
       </c>
-      <c r="D141" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E141" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F141" s="43">
-        <v>4</v>
-      </c>
-      <c r="G141" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="H141" s="41"/>
+      <c r="D141" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E141" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F141" s="37">
+        <v>6</v>
+      </c>
+      <c r="G141" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H141" s="42"/>
     </row>
     <row r="142" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B142" s="44" t="s">
-        <v>63</v>
+      <c r="B142" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="C142" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E142" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F142" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="G142" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F142" s="37">
+        <v>5</v>
+      </c>
+      <c r="G142" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H142" s="41"/>
+      <c r="H142" s="42"/>
     </row>
     <row r="143" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B143" s="44" t="s">
-        <v>63</v>
+      <c r="B143" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="C143" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F143" s="43">
-        <v>1</v>
-      </c>
-      <c r="G143" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H143" s="41"/>
+        <v>122</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F143" s="37">
+        <v>5</v>
+      </c>
+      <c r="G143" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H143" s="42"/>
     </row>
     <row r="144" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B144" s="44" t="s">
-        <v>63</v>
+      <c r="B144" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C144" s="42">
         <v>1</v>
       </c>
       <c r="D144" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E144" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F144" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="G144" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H144" s="41"/>
+        <v>92</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" s="37">
+        <v>1</v>
+      </c>
+      <c r="G144" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H144" s="42"/>
     </row>
     <row r="145" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="31" t="s">
@@ -7144,14 +7233,18 @@
       <c r="C145" s="42">
         <v>1</v>
       </c>
-      <c r="D145" s="34"/>
-      <c r="E145" s="35" t="s">
-        <v>53</v>
+      <c r="D145" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="F145" s="43">
-        <v>9</v>
-      </c>
-      <c r="G145" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="G145" s="41" t="s">
+        <v>133</v>
+      </c>
       <c r="H145" s="41"/>
     </row>
     <row r="146" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7159,344 +7252,334 @@
         <v>57</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C146" s="42">
         <v>1</v>
       </c>
-      <c r="D146" s="34"/>
+      <c r="D146" s="34" t="s">
+        <v>122</v>
+      </c>
       <c r="E146" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" s="43"/>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
+        <v>52</v>
+      </c>
+      <c r="F146" s="43">
+        <v>1</v>
+      </c>
+      <c r="G146" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H146" s="45"/>
     </row>
     <row r="147" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B147" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C147" s="42">
+      <c r="B147" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="33">
         <v>1</v>
       </c>
-      <c r="D147" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E147" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F147" s="43">
-        <v>85</v>
-      </c>
-      <c r="G147" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H147" s="41"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="36">
+        <v>53</v>
+      </c>
+      <c r="G147" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H147" s="37"/>
     </row>
     <row r="148" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B148" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="42">
+      <c r="B148" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="33">
         <v>1</v>
       </c>
-      <c r="D148" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E148" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F148" s="43">
-        <v>6</v>
-      </c>
-      <c r="G148" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="H148" s="41"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" s="36">
+        <v>60</v>
+      </c>
+      <c r="G148" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H148" s="37"/>
     </row>
     <row r="149" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B149" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="42">
+      <c r="B149" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="33">
         <v>1</v>
       </c>
-      <c r="D149" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E149" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F149" s="43">
-        <v>5</v>
-      </c>
-      <c r="G149" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H149" s="45"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149" s="36">
+        <v>41</v>
+      </c>
+      <c r="G149" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H149" s="37"/>
     </row>
     <row r="150" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B150" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C150" s="42">
+      <c r="B150" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="33">
         <v>1</v>
       </c>
-      <c r="D150" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E150" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F150" s="43">
-        <v>2</v>
-      </c>
-      <c r="G150" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H150" s="45"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F150" s="36">
+        <v>48</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H150" s="37"/>
     </row>
     <row r="151" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B151" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="42">
+      <c r="B151" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="33">
         <v>1</v>
       </c>
-      <c r="D151" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E151" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F151" s="43">
-        <v>1</v>
-      </c>
-      <c r="G151" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="45"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151" s="36">
+        <v>58.5</v>
+      </c>
+      <c r="G151" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H151" s="37">
+        <v>42</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B152" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" s="42">
+      <c r="B152" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="33">
         <v>1</v>
       </c>
-      <c r="D152" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E152" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F152" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="G152" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H152" s="45"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F152" s="37">
+        <v>45.5</v>
+      </c>
+      <c r="G152" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H152" s="42"/>
     </row>
     <row r="153" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B153" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C153" s="42">
+      <c r="B153" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="33">
         <v>1</v>
       </c>
-      <c r="D153" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F153" s="43">
-        <v>1</v>
-      </c>
-      <c r="G153" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H153" s="45"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F153" s="37">
+        <v>7</v>
+      </c>
+      <c r="G153" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H153" s="42"/>
     </row>
     <row r="154" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B154" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="42">
+      <c r="B154" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="33">
         <v>1</v>
       </c>
       <c r="D154" s="34"/>
-      <c r="E154" s="41" t="s">
+      <c r="E154" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F154" s="43"/>
-      <c r="G154" s="45"/>
-      <c r="H154" s="45"/>
+      <c r="F154" s="37">
+        <v>31</v>
+      </c>
+      <c r="G154" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H154" s="42"/>
     </row>
     <row r="155" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B155" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" s="42">
+      <c r="B155" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="33">
         <v>1</v>
       </c>
-      <c r="D155" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F155" s="43">
-        <v>1</v>
-      </c>
-      <c r="G155" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H155" s="45"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F155" s="37">
+        <v>96</v>
+      </c>
+      <c r="G155" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H155" s="42"/>
     </row>
     <row r="156" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B156" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156" s="42">
+      <c r="B156" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="33">
         <v>1</v>
       </c>
-      <c r="D156" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F156" s="43">
-        <v>10</v>
-      </c>
-      <c r="G156" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="45"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F156" s="37">
+        <v>56</v>
+      </c>
+      <c r="G156" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H156" s="42"/>
     </row>
     <row r="157" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B157" s="44" t="s">
-        <v>65</v>
+      <c r="B157" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C157" s="42">
         <v>1</v>
       </c>
       <c r="D157" s="34"/>
-      <c r="E157" s="35" t="s">
+      <c r="E157" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F157" s="43">
-        <v>2</v>
-      </c>
-      <c r="G157" s="45"/>
-      <c r="H157" s="45"/>
+      <c r="F157" s="37">
+        <v>21</v>
+      </c>
+      <c r="G157" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H157" s="42"/>
     </row>
     <row r="158" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B158" s="44" t="s">
-        <v>65</v>
+      <c r="B158" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="C158" s="42">
         <v>1</v>
       </c>
-      <c r="D158" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F158" s="43">
-        <v>7</v>
-      </c>
-      <c r="G158" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H158" s="45"/>
+      <c r="D158" s="34"/>
+      <c r="E158" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F158" s="37">
+        <v>35</v>
+      </c>
+      <c r="G158" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="H158" s="42"/>
     </row>
     <row r="159" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B159" s="44" t="s">
-        <v>65</v>
+      <c r="B159" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="C159" s="42">
         <v>1</v>
       </c>
-      <c r="D159" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E159" s="51" t="s">
-        <v>121</v>
+      <c r="D159" s="34"/>
+      <c r="E159" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="F159" s="43">
-        <v>75</v>
-      </c>
-      <c r="G159" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H159" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="G159" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H159" s="41"/>
     </row>
     <row r="160" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C160" s="42">
         <v>1</v>
       </c>
-      <c r="D160" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E160" s="49" t="s">
-        <v>69</v>
+      <c r="D160" s="34"/>
+      <c r="E160" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="F160" s="43">
-        <v>4</v>
-      </c>
-      <c r="G160" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H160" s="45"/>
+        <v>9</v>
+      </c>
+      <c r="G160" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H160" s="41"/>
     </row>
     <row r="161" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="31" t="s">
@@ -7508,17 +7591,15 @@
       <c r="C161" s="42">
         <v>1</v>
       </c>
-      <c r="D161" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E161" s="41" t="s">
-        <v>52</v>
+      <c r="D161" s="34"/>
+      <c r="E161" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="F161" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" s="45" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H161" s="45"/>
     </row>
@@ -7527,238 +7608,27 @@
         <v>57</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C162" s="42">
         <v>1</v>
       </c>
-      <c r="D162" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E162" s="35" t="s">
-        <v>89</v>
+      <c r="D162" s="46"/>
+      <c r="E162" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="F162" s="43">
-        <v>0.5</v>
+        <v>26</v>
       </c>
       <c r="G162" s="45" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="H162" s="45"/>
     </row>
-    <row r="163" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B163" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163" s="42">
-        <v>1</v>
-      </c>
-      <c r="D163" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F163" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="G163" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H163" s="45"/>
-    </row>
-    <row r="164" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B164" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C164" s="42">
-        <v>1</v>
-      </c>
-      <c r="D164" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F164" s="43">
-        <v>26</v>
-      </c>
-      <c r="G164" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H164" s="45"/>
-    </row>
-    <row r="165" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B165" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C165" s="42">
-        <v>1</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E165" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F165" s="43">
-        <v>2</v>
-      </c>
-      <c r="G165" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H165" s="45"/>
-    </row>
-    <row r="166" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C166" s="42">
-        <v>1</v>
-      </c>
-      <c r="D166" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E166" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F166" s="43">
-        <v>30</v>
-      </c>
-      <c r="G166" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H166" s="45"/>
-    </row>
-    <row r="167" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B167" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C167" s="42">
-        <v>1</v>
-      </c>
-      <c r="D167" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E167" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F167" s="43">
-        <v>4</v>
-      </c>
-      <c r="G167" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H167" s="45"/>
-    </row>
-    <row r="168" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B168" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C168" s="42">
-        <v>1</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E168" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F168" s="43">
-        <v>4</v>
-      </c>
-      <c r="G168" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H168" s="45"/>
-    </row>
-    <row r="169" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B169" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C169" s="42">
-        <v>1</v>
-      </c>
-      <c r="D169" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E169" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="F169" s="43">
-        <v>7</v>
-      </c>
-      <c r="G169" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H169" s="45"/>
-    </row>
-    <row r="170" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B170" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C170" s="42">
-        <v>1</v>
-      </c>
-      <c r="D170" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="E170" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F170" s="43">
-        <v>1</v>
-      </c>
-      <c r="G170" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H170" s="45"/>
-    </row>
-    <row r="171" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B171" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C171" s="42">
-        <v>1</v>
-      </c>
-      <c r="D171" s="46"/>
-      <c r="E171" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F171" s="43">
-        <v>26</v>
-      </c>
-      <c r="G171" s="45"/>
-      <c r="H171" s="45"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IO162">
+    <sortCondition ref="G2:G162"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -7829,7 +7699,7 @@
       </c>
       <c r="V1" s="123"/>
       <c r="W1" s="123"/>
-      <c r="X1" s="98"/>
+      <c r="X1" s="97"/>
       <c r="Y1" s="31"/>
       <c r="Z1" s="31"/>
     </row>
@@ -7900,41 +7770,41 @@
       <c r="V2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="100" t="s">
+      <c r="W2" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="104" t="s">
+      <c r="X2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="99"/>
+      <c r="Y2" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" s="98"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="121" t="s">
-        <v>176</v>
+      <c r="B3" s="120" t="s">
+        <v>175</v>
       </c>
       <c r="C3" s="73">
         <v>1</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="79" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6">
@@ -7969,7 +7839,7 @@
         <f t="shared" ref="V3:V66" si="3">U3*200</f>
         <v>0</v>
       </c>
-      <c r="W3" s="101"/>
+      <c r="W3" s="100"/>
       <c r="X3" s="35"/>
       <c r="Y3" s="31">
         <f>SUM(J3,M3,P3,S3,V3)</f>
@@ -7982,25 +7852,25 @@
         <v>57</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="120">
+        <v>175</v>
+      </c>
+      <c r="C4" s="119">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="78" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="11">
@@ -8035,7 +7905,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W4" s="102"/>
+      <c r="W4" s="101"/>
       <c r="X4" s="35"/>
       <c r="Y4" s="31">
         <f t="shared" ref="Y4:Y7" si="5">SUM(J4,M4,P4,S4,V4)</f>
@@ -8047,26 +7917,26 @@
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="108" t="s">
-        <v>175</v>
+      <c r="B5" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="78" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="11">
@@ -8101,7 +7971,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W5" s="102"/>
+      <c r="W5" s="101"/>
       <c r="X5" s="35"/>
       <c r="Y5" s="31">
         <f t="shared" si="5"/>
@@ -8114,25 +7984,25 @@
         <v>57</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="78" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="11">
@@ -8167,7 +8037,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W6" s="102"/>
+      <c r="W6" s="101"/>
       <c r="X6" s="35"/>
       <c r="Y6" s="31">
         <f>SUM(J6,M6,P6,S6,V6)</f>
@@ -8180,25 +8050,25 @@
         <v>57</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="78" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="11">
@@ -8233,7 +8103,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W7" s="102"/>
+      <c r="W7" s="101"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="31">
         <f t="shared" si="5"/>
@@ -8279,7 +8149,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W8" s="102"/>
+      <c r="W8" s="101"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
@@ -8323,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="14"/>
-      <c r="X9" s="103"/>
+      <c r="X9" s="102"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
@@ -8371,7 +8241,7 @@
       <c r="B11" s="11"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="109"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="11"/>
       <c r="G11" s="78"/>
       <c r="H11" s="12"/>
@@ -8412,10 +8282,10 @@
       <c r="B12" s="11"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="110" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="107"/>
+      <c r="E12" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="106"/>
       <c r="G12" s="78"/>
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
@@ -8454,15 +8324,15 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="102"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="35">
         <f>SUM(Y3+Y7)</f>
         <v>52.4</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="105"/>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
       <c r="K13" s="14"/>
@@ -8496,15 +8366,15 @@
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="102"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="35">
         <f>Y4+Y5</f>
         <v>52.4</v>
       </c>
-      <c r="G14" s="106"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="12"/>
       <c r="I14" s="13"/>
       <c r="K14" s="14"/>
@@ -8538,15 +8408,15 @@
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="102"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="35">
         <f>Y6</f>
         <v>52.4</v>
       </c>
-      <c r="G15" s="106"/>
+      <c r="G15" s="105"/>
       <c r="H15" s="12"/>
       <c r="I15" s="13"/>
       <c r="K15" s="14"/>
@@ -8581,8 +8451,8 @@
       <c r="B16" s="11"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="78"/>
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
@@ -8623,7 +8493,7 @@
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="11">
         <f>SUM(F13:F14)</f>
@@ -8672,7 +8542,7 @@
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="11">
         <f>F15</f>
@@ -20680,65 +20550,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="118" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="83">
         <v>1</v>
       </c>
       <c r="D2" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="F2" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="86"/>
       <c r="H2" s="87">
         <v>25</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="35"/>
@@ -20746,32 +20616,32 @@
         <f>H2*0.361</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="L2" s="105"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="88">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="22">
         <v>25</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="35"/>
@@ -20779,32 +20649,32 @@
         <f t="shared" ref="K3:K9" si="0">H3*0.361</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="L3" s="105"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="89">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="22">
         <v>0.5</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="35"/>
@@ -20812,32 +20682,32 @@
         <f t="shared" si="0"/>
         <v>0.18049999999999999</v>
       </c>
-      <c r="L4" s="105"/>
-    </row>
-    <row r="5" spans="1:256" s="113" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="104"/>
+    </row>
+    <row r="5" spans="1:256" s="112" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="89">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22">
         <v>2</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="35"/>
@@ -20845,276 +20715,276 @@
         <f t="shared" si="0"/>
         <v>0.72199999999999998</v>
       </c>
-      <c r="L5" s="105"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
-      <c r="BD5" s="112"/>
-      <c r="BE5" s="112"/>
-      <c r="BF5" s="112"/>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="112"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="112"/>
-      <c r="BN5" s="112"/>
-      <c r="BO5" s="112"/>
-      <c r="BP5" s="112"/>
-      <c r="BQ5" s="112"/>
-      <c r="BR5" s="112"/>
-      <c r="BS5" s="112"/>
-      <c r="BT5" s="112"/>
-      <c r="BU5" s="112"/>
-      <c r="BV5" s="112"/>
-      <c r="BW5" s="112"/>
-      <c r="BX5" s="112"/>
-      <c r="BY5" s="112"/>
-      <c r="BZ5" s="112"/>
-      <c r="CA5" s="112"/>
-      <c r="CB5" s="112"/>
-      <c r="CC5" s="112"/>
-      <c r="CD5" s="112"/>
-      <c r="CE5" s="112"/>
-      <c r="CF5" s="112"/>
-      <c r="CG5" s="112"/>
-      <c r="CH5" s="112"/>
-      <c r="CI5" s="112"/>
-      <c r="CJ5" s="112"/>
-      <c r="CK5" s="112"/>
-      <c r="CL5" s="112"/>
-      <c r="CM5" s="112"/>
-      <c r="CN5" s="112"/>
-      <c r="CO5" s="112"/>
-      <c r="CP5" s="112"/>
-      <c r="CQ5" s="112"/>
-      <c r="CR5" s="112"/>
-      <c r="CS5" s="112"/>
-      <c r="CT5" s="112"/>
-      <c r="CU5" s="112"/>
-      <c r="CV5" s="112"/>
-      <c r="CW5" s="112"/>
-      <c r="CX5" s="112"/>
-      <c r="CY5" s="112"/>
-      <c r="CZ5" s="112"/>
-      <c r="DA5" s="112"/>
-      <c r="DB5" s="112"/>
-      <c r="DC5" s="112"/>
-      <c r="DD5" s="112"/>
-      <c r="DE5" s="112"/>
-      <c r="DF5" s="112"/>
-      <c r="DG5" s="112"/>
-      <c r="DH5" s="112"/>
-      <c r="DI5" s="112"/>
-      <c r="DJ5" s="112"/>
-      <c r="DK5" s="112"/>
-      <c r="DL5" s="112"/>
-      <c r="DM5" s="112"/>
-      <c r="DN5" s="112"/>
-      <c r="DO5" s="112"/>
-      <c r="DP5" s="112"/>
-      <c r="DQ5" s="112"/>
-      <c r="DR5" s="112"/>
-      <c r="DS5" s="112"/>
-      <c r="DT5" s="112"/>
-      <c r="DU5" s="112"/>
-      <c r="DV5" s="112"/>
-      <c r="DW5" s="112"/>
-      <c r="DX5" s="112"/>
-      <c r="DY5" s="112"/>
-      <c r="DZ5" s="112"/>
-      <c r="EA5" s="112"/>
-      <c r="EB5" s="112"/>
-      <c r="EC5" s="112"/>
-      <c r="ED5" s="112"/>
-      <c r="EE5" s="112"/>
-      <c r="EF5" s="112"/>
-      <c r="EG5" s="112"/>
-      <c r="EH5" s="112"/>
-      <c r="EI5" s="112"/>
-      <c r="EJ5" s="112"/>
-      <c r="EK5" s="112"/>
-      <c r="EL5" s="112"/>
-      <c r="EM5" s="112"/>
-      <c r="EN5" s="112"/>
-      <c r="EO5" s="112"/>
-      <c r="EP5" s="112"/>
-      <c r="EQ5" s="112"/>
-      <c r="ER5" s="112"/>
-      <c r="ES5" s="112"/>
-      <c r="ET5" s="112"/>
-      <c r="EU5" s="112"/>
-      <c r="EV5" s="112"/>
-      <c r="EW5" s="112"/>
-      <c r="EX5" s="112"/>
-      <c r="EY5" s="112"/>
-      <c r="EZ5" s="112"/>
-      <c r="FA5" s="112"/>
-      <c r="FB5" s="112"/>
-      <c r="FC5" s="112"/>
-      <c r="FD5" s="112"/>
-      <c r="FE5" s="112"/>
-      <c r="FF5" s="112"/>
-      <c r="FG5" s="112"/>
-      <c r="FH5" s="112"/>
-      <c r="FI5" s="112"/>
-      <c r="FJ5" s="112"/>
-      <c r="FK5" s="112"/>
-      <c r="FL5" s="112"/>
-      <c r="FM5" s="112"/>
-      <c r="FN5" s="112"/>
-      <c r="FO5" s="112"/>
-      <c r="FP5" s="112"/>
-      <c r="FQ5" s="112"/>
-      <c r="FR5" s="112"/>
-      <c r="FS5" s="112"/>
-      <c r="FT5" s="112"/>
-      <c r="FU5" s="112"/>
-      <c r="FV5" s="112"/>
-      <c r="FW5" s="112"/>
-      <c r="FX5" s="112"/>
-      <c r="FY5" s="112"/>
-      <c r="FZ5" s="112"/>
-      <c r="GA5" s="112"/>
-      <c r="GB5" s="112"/>
-      <c r="GC5" s="112"/>
-      <c r="GD5" s="112"/>
-      <c r="GE5" s="112"/>
-      <c r="GF5" s="112"/>
-      <c r="GG5" s="112"/>
-      <c r="GH5" s="112"/>
-      <c r="GI5" s="112"/>
-      <c r="GJ5" s="112"/>
-      <c r="GK5" s="112"/>
-      <c r="GL5" s="112"/>
-      <c r="GM5" s="112"/>
-      <c r="GN5" s="112"/>
-      <c r="GO5" s="112"/>
-      <c r="GP5" s="112"/>
-      <c r="GQ5" s="112"/>
-      <c r="GR5" s="112"/>
-      <c r="GS5" s="112"/>
-      <c r="GT5" s="112"/>
-      <c r="GU5" s="112"/>
-      <c r="GV5" s="112"/>
-      <c r="GW5" s="112"/>
-      <c r="GX5" s="112"/>
-      <c r="GY5" s="112"/>
-      <c r="GZ5" s="112"/>
-      <c r="HA5" s="112"/>
-      <c r="HB5" s="112"/>
-      <c r="HC5" s="112"/>
-      <c r="HD5" s="112"/>
-      <c r="HE5" s="112"/>
-      <c r="HF5" s="112"/>
-      <c r="HG5" s="112"/>
-      <c r="HH5" s="112"/>
-      <c r="HI5" s="112"/>
-      <c r="HJ5" s="112"/>
-      <c r="HK5" s="112"/>
-      <c r="HL5" s="112"/>
-      <c r="HM5" s="112"/>
-      <c r="HN5" s="112"/>
-      <c r="HO5" s="112"/>
-      <c r="HP5" s="112"/>
-      <c r="HQ5" s="112"/>
-      <c r="HR5" s="112"/>
-      <c r="HS5" s="112"/>
-      <c r="HT5" s="112"/>
-      <c r="HU5" s="112"/>
-      <c r="HV5" s="112"/>
-      <c r="HW5" s="112"/>
-      <c r="HX5" s="112"/>
-      <c r="HY5" s="112"/>
-      <c r="HZ5" s="112"/>
-      <c r="IA5" s="112"/>
-      <c r="IB5" s="112"/>
-      <c r="IC5" s="112"/>
-      <c r="ID5" s="112"/>
-      <c r="IE5" s="112"/>
-      <c r="IF5" s="112"/>
-      <c r="IG5" s="112"/>
-      <c r="IH5" s="112"/>
-      <c r="II5" s="112"/>
-      <c r="IJ5" s="112"/>
-      <c r="IK5" s="112"/>
-      <c r="IL5" s="112"/>
-      <c r="IM5" s="112"/>
-      <c r="IN5" s="112"/>
-      <c r="IO5" s="112"/>
-      <c r="IP5" s="112"/>
-      <c r="IQ5" s="112"/>
-      <c r="IR5" s="112"/>
-      <c r="IS5" s="112"/>
-      <c r="IT5" s="112"/>
-      <c r="IU5" s="112"/>
-      <c r="IV5" s="112"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="111"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="111"/>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="111"/>
+      <c r="BJ5" s="111"/>
+      <c r="BK5" s="111"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="111"/>
+      <c r="BN5" s="111"/>
+      <c r="BO5" s="111"/>
+      <c r="BP5" s="111"/>
+      <c r="BQ5" s="111"/>
+      <c r="BR5" s="111"/>
+      <c r="BS5" s="111"/>
+      <c r="BT5" s="111"/>
+      <c r="BU5" s="111"/>
+      <c r="BV5" s="111"/>
+      <c r="BW5" s="111"/>
+      <c r="BX5" s="111"/>
+      <c r="BY5" s="111"/>
+      <c r="BZ5" s="111"/>
+      <c r="CA5" s="111"/>
+      <c r="CB5" s="111"/>
+      <c r="CC5" s="111"/>
+      <c r="CD5" s="111"/>
+      <c r="CE5" s="111"/>
+      <c r="CF5" s="111"/>
+      <c r="CG5" s="111"/>
+      <c r="CH5" s="111"/>
+      <c r="CI5" s="111"/>
+      <c r="CJ5" s="111"/>
+      <c r="CK5" s="111"/>
+      <c r="CL5" s="111"/>
+      <c r="CM5" s="111"/>
+      <c r="CN5" s="111"/>
+      <c r="CO5" s="111"/>
+      <c r="CP5" s="111"/>
+      <c r="CQ5" s="111"/>
+      <c r="CR5" s="111"/>
+      <c r="CS5" s="111"/>
+      <c r="CT5" s="111"/>
+      <c r="CU5" s="111"/>
+      <c r="CV5" s="111"/>
+      <c r="CW5" s="111"/>
+      <c r="CX5" s="111"/>
+      <c r="CY5" s="111"/>
+      <c r="CZ5" s="111"/>
+      <c r="DA5" s="111"/>
+      <c r="DB5" s="111"/>
+      <c r="DC5" s="111"/>
+      <c r="DD5" s="111"/>
+      <c r="DE5" s="111"/>
+      <c r="DF5" s="111"/>
+      <c r="DG5" s="111"/>
+      <c r="DH5" s="111"/>
+      <c r="DI5" s="111"/>
+      <c r="DJ5" s="111"/>
+      <c r="DK5" s="111"/>
+      <c r="DL5" s="111"/>
+      <c r="DM5" s="111"/>
+      <c r="DN5" s="111"/>
+      <c r="DO5" s="111"/>
+      <c r="DP5" s="111"/>
+      <c r="DQ5" s="111"/>
+      <c r="DR5" s="111"/>
+      <c r="DS5" s="111"/>
+      <c r="DT5" s="111"/>
+      <c r="DU5" s="111"/>
+      <c r="DV5" s="111"/>
+      <c r="DW5" s="111"/>
+      <c r="DX5" s="111"/>
+      <c r="DY5" s="111"/>
+      <c r="DZ5" s="111"/>
+      <c r="EA5" s="111"/>
+      <c r="EB5" s="111"/>
+      <c r="EC5" s="111"/>
+      <c r="ED5" s="111"/>
+      <c r="EE5" s="111"/>
+      <c r="EF5" s="111"/>
+      <c r="EG5" s="111"/>
+      <c r="EH5" s="111"/>
+      <c r="EI5" s="111"/>
+      <c r="EJ5" s="111"/>
+      <c r="EK5" s="111"/>
+      <c r="EL5" s="111"/>
+      <c r="EM5" s="111"/>
+      <c r="EN5" s="111"/>
+      <c r="EO5" s="111"/>
+      <c r="EP5" s="111"/>
+      <c r="EQ5" s="111"/>
+      <c r="ER5" s="111"/>
+      <c r="ES5" s="111"/>
+      <c r="ET5" s="111"/>
+      <c r="EU5" s="111"/>
+      <c r="EV5" s="111"/>
+      <c r="EW5" s="111"/>
+      <c r="EX5" s="111"/>
+      <c r="EY5" s="111"/>
+      <c r="EZ5" s="111"/>
+      <c r="FA5" s="111"/>
+      <c r="FB5" s="111"/>
+      <c r="FC5" s="111"/>
+      <c r="FD5" s="111"/>
+      <c r="FE5" s="111"/>
+      <c r="FF5" s="111"/>
+      <c r="FG5" s="111"/>
+      <c r="FH5" s="111"/>
+      <c r="FI5" s="111"/>
+      <c r="FJ5" s="111"/>
+      <c r="FK5" s="111"/>
+      <c r="FL5" s="111"/>
+      <c r="FM5" s="111"/>
+      <c r="FN5" s="111"/>
+      <c r="FO5" s="111"/>
+      <c r="FP5" s="111"/>
+      <c r="FQ5" s="111"/>
+      <c r="FR5" s="111"/>
+      <c r="FS5" s="111"/>
+      <c r="FT5" s="111"/>
+      <c r="FU5" s="111"/>
+      <c r="FV5" s="111"/>
+      <c r="FW5" s="111"/>
+      <c r="FX5" s="111"/>
+      <c r="FY5" s="111"/>
+      <c r="FZ5" s="111"/>
+      <c r="GA5" s="111"/>
+      <c r="GB5" s="111"/>
+      <c r="GC5" s="111"/>
+      <c r="GD5" s="111"/>
+      <c r="GE5" s="111"/>
+      <c r="GF5" s="111"/>
+      <c r="GG5" s="111"/>
+      <c r="GH5" s="111"/>
+      <c r="GI5" s="111"/>
+      <c r="GJ5" s="111"/>
+      <c r="GK5" s="111"/>
+      <c r="GL5" s="111"/>
+      <c r="GM5" s="111"/>
+      <c r="GN5" s="111"/>
+      <c r="GO5" s="111"/>
+      <c r="GP5" s="111"/>
+      <c r="GQ5" s="111"/>
+      <c r="GR5" s="111"/>
+      <c r="GS5" s="111"/>
+      <c r="GT5" s="111"/>
+      <c r="GU5" s="111"/>
+      <c r="GV5" s="111"/>
+      <c r="GW5" s="111"/>
+      <c r="GX5" s="111"/>
+      <c r="GY5" s="111"/>
+      <c r="GZ5" s="111"/>
+      <c r="HA5" s="111"/>
+      <c r="HB5" s="111"/>
+      <c r="HC5" s="111"/>
+      <c r="HD5" s="111"/>
+      <c r="HE5" s="111"/>
+      <c r="HF5" s="111"/>
+      <c r="HG5" s="111"/>
+      <c r="HH5" s="111"/>
+      <c r="HI5" s="111"/>
+      <c r="HJ5" s="111"/>
+      <c r="HK5" s="111"/>
+      <c r="HL5" s="111"/>
+      <c r="HM5" s="111"/>
+      <c r="HN5" s="111"/>
+      <c r="HO5" s="111"/>
+      <c r="HP5" s="111"/>
+      <c r="HQ5" s="111"/>
+      <c r="HR5" s="111"/>
+      <c r="HS5" s="111"/>
+      <c r="HT5" s="111"/>
+      <c r="HU5" s="111"/>
+      <c r="HV5" s="111"/>
+      <c r="HW5" s="111"/>
+      <c r="HX5" s="111"/>
+      <c r="HY5" s="111"/>
+      <c r="HZ5" s="111"/>
+      <c r="IA5" s="111"/>
+      <c r="IB5" s="111"/>
+      <c r="IC5" s="111"/>
+      <c r="ID5" s="111"/>
+      <c r="IE5" s="111"/>
+      <c r="IF5" s="111"/>
+      <c r="IG5" s="111"/>
+      <c r="IH5" s="111"/>
+      <c r="II5" s="111"/>
+      <c r="IJ5" s="111"/>
+      <c r="IK5" s="111"/>
+      <c r="IL5" s="111"/>
+      <c r="IM5" s="111"/>
+      <c r="IN5" s="111"/>
+      <c r="IO5" s="111"/>
+      <c r="IP5" s="111"/>
+      <c r="IQ5" s="111"/>
+      <c r="IR5" s="111"/>
+      <c r="IS5" s="111"/>
+      <c r="IT5" s="111"/>
+      <c r="IU5" s="111"/>
+      <c r="IV5" s="111"/>
     </row>
     <row r="6" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="89">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>157</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="22">
         <v>10</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="35"/>
@@ -21122,32 +20992,32 @@
         <f t="shared" si="0"/>
         <v>3.61</v>
       </c>
-      <c r="L6" s="105"/>
-    </row>
-    <row r="7" spans="1:256" s="113" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="1:256" s="112" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="89">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22">
         <v>0.5</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="35"/>
@@ -21155,267 +21025,267 @@
         <f t="shared" si="0"/>
         <v>0.18049999999999999</v>
       </c>
-      <c r="L7" s="111"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="112"/>
-      <c r="AM7" s="112"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="112"/>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="112"/>
-      <c r="AW7" s="112"/>
-      <c r="AX7" s="112"/>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="112"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="112"/>
-      <c r="BD7" s="112"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="112"/>
-      <c r="BJ7" s="112"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="112"/>
-      <c r="BM7" s="112"/>
-      <c r="BN7" s="112"/>
-      <c r="BO7" s="112"/>
-      <c r="BP7" s="112"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="112"/>
-      <c r="BS7" s="112"/>
-      <c r="BT7" s="112"/>
-      <c r="BU7" s="112"/>
-      <c r="BV7" s="112"/>
-      <c r="BW7" s="112"/>
-      <c r="BX7" s="112"/>
-      <c r="BY7" s="112"/>
-      <c r="BZ7" s="112"/>
-      <c r="CA7" s="112"/>
-      <c r="CB7" s="112"/>
-      <c r="CC7" s="112"/>
-      <c r="CD7" s="112"/>
-      <c r="CE7" s="112"/>
-      <c r="CF7" s="112"/>
-      <c r="CG7" s="112"/>
-      <c r="CH7" s="112"/>
-      <c r="CI7" s="112"/>
-      <c r="CJ7" s="112"/>
-      <c r="CK7" s="112"/>
-      <c r="CL7" s="112"/>
-      <c r="CM7" s="112"/>
-      <c r="CN7" s="112"/>
-      <c r="CO7" s="112"/>
-      <c r="CP7" s="112"/>
-      <c r="CQ7" s="112"/>
-      <c r="CR7" s="112"/>
-      <c r="CS7" s="112"/>
-      <c r="CT7" s="112"/>
-      <c r="CU7" s="112"/>
-      <c r="CV7" s="112"/>
-      <c r="CW7" s="112"/>
-      <c r="CX7" s="112"/>
-      <c r="CY7" s="112"/>
-      <c r="CZ7" s="112"/>
-      <c r="DA7" s="112"/>
-      <c r="DB7" s="112"/>
-      <c r="DC7" s="112"/>
-      <c r="DD7" s="112"/>
-      <c r="DE7" s="112"/>
-      <c r="DF7" s="112"/>
-      <c r="DG7" s="112"/>
-      <c r="DH7" s="112"/>
-      <c r="DI7" s="112"/>
-      <c r="DJ7" s="112"/>
-      <c r="DK7" s="112"/>
-      <c r="DL7" s="112"/>
-      <c r="DM7" s="112"/>
-      <c r="DN7" s="112"/>
-      <c r="DO7" s="112"/>
-      <c r="DP7" s="112"/>
-      <c r="DQ7" s="112"/>
-      <c r="DR7" s="112"/>
-      <c r="DS7" s="112"/>
-      <c r="DT7" s="112"/>
-      <c r="DU7" s="112"/>
-      <c r="DV7" s="112"/>
-      <c r="DW7" s="112"/>
-      <c r="DX7" s="112"/>
-      <c r="DY7" s="112"/>
-      <c r="DZ7" s="112"/>
-      <c r="EA7" s="112"/>
-      <c r="EB7" s="112"/>
-      <c r="EC7" s="112"/>
-      <c r="ED7" s="112"/>
-      <c r="EE7" s="112"/>
-      <c r="EF7" s="112"/>
-      <c r="EG7" s="112"/>
-      <c r="EH7" s="112"/>
-      <c r="EI7" s="112"/>
-      <c r="EJ7" s="112"/>
-      <c r="EK7" s="112"/>
-      <c r="EL7" s="112"/>
-      <c r="EM7" s="112"/>
-      <c r="EN7" s="112"/>
-      <c r="EO7" s="112"/>
-      <c r="EP7" s="112"/>
-      <c r="EQ7" s="112"/>
-      <c r="ER7" s="112"/>
-      <c r="ES7" s="112"/>
-      <c r="ET7" s="112"/>
-      <c r="EU7" s="112"/>
-      <c r="EV7" s="112"/>
-      <c r="EW7" s="112"/>
-      <c r="EX7" s="112"/>
-      <c r="EY7" s="112"/>
-      <c r="EZ7" s="112"/>
-      <c r="FA7" s="112"/>
-      <c r="FB7" s="112"/>
-      <c r="FC7" s="112"/>
-      <c r="FD7" s="112"/>
-      <c r="FE7" s="112"/>
-      <c r="FF7" s="112"/>
-      <c r="FG7" s="112"/>
-      <c r="FH7" s="112"/>
-      <c r="FI7" s="112"/>
-      <c r="FJ7" s="112"/>
-      <c r="FK7" s="112"/>
-      <c r="FL7" s="112"/>
-      <c r="FM7" s="112"/>
-      <c r="FN7" s="112"/>
-      <c r="FO7" s="112"/>
-      <c r="FP7" s="112"/>
-      <c r="FQ7" s="112"/>
-      <c r="FR7" s="112"/>
-      <c r="FS7" s="112"/>
-      <c r="FT7" s="112"/>
-      <c r="FU7" s="112"/>
-      <c r="FV7" s="112"/>
-      <c r="FW7" s="112"/>
-      <c r="FX7" s="112"/>
-      <c r="FY7" s="112"/>
-      <c r="FZ7" s="112"/>
-      <c r="GA7" s="112"/>
-      <c r="GB7" s="112"/>
-      <c r="GC7" s="112"/>
-      <c r="GD7" s="112"/>
-      <c r="GE7" s="112"/>
-      <c r="GF7" s="112"/>
-      <c r="GG7" s="112"/>
-      <c r="GH7" s="112"/>
-      <c r="GI7" s="112"/>
-      <c r="GJ7" s="112"/>
-      <c r="GK7" s="112"/>
-      <c r="GL7" s="112"/>
-      <c r="GM7" s="112"/>
-      <c r="GN7" s="112"/>
-      <c r="GO7" s="112"/>
-      <c r="GP7" s="112"/>
-      <c r="GQ7" s="112"/>
-      <c r="GR7" s="112"/>
-      <c r="GS7" s="112"/>
-      <c r="GT7" s="112"/>
-      <c r="GU7" s="112"/>
-      <c r="GV7" s="112"/>
-      <c r="GW7" s="112"/>
-      <c r="GX7" s="112"/>
-      <c r="GY7" s="112"/>
-      <c r="GZ7" s="112"/>
-      <c r="HA7" s="112"/>
-      <c r="HB7" s="112"/>
-      <c r="HC7" s="112"/>
-      <c r="HD7" s="112"/>
-      <c r="HE7" s="112"/>
-      <c r="HF7" s="112"/>
-      <c r="HG7" s="112"/>
-      <c r="HH7" s="112"/>
-      <c r="HI7" s="112"/>
-      <c r="HJ7" s="112"/>
-      <c r="HK7" s="112"/>
-      <c r="HL7" s="112"/>
-      <c r="HM7" s="112"/>
-      <c r="HN7" s="112"/>
-      <c r="HO7" s="112"/>
-      <c r="HP7" s="112"/>
-      <c r="HQ7" s="112"/>
-      <c r="HR7" s="112"/>
-      <c r="HS7" s="112"/>
-      <c r="HT7" s="112"/>
-      <c r="HU7" s="112"/>
-      <c r="HV7" s="112"/>
-      <c r="HW7" s="112"/>
-      <c r="HX7" s="112"/>
-      <c r="HY7" s="112"/>
-      <c r="HZ7" s="112"/>
-      <c r="IA7" s="112"/>
-      <c r="IB7" s="112"/>
-      <c r="IC7" s="112"/>
-      <c r="ID7" s="112"/>
-      <c r="IE7" s="112"/>
-      <c r="IF7" s="112"/>
-      <c r="IG7" s="112"/>
-      <c r="IH7" s="112"/>
-      <c r="II7" s="112"/>
-      <c r="IJ7" s="112"/>
-      <c r="IK7" s="112"/>
-      <c r="IL7" s="112"/>
-      <c r="IM7" s="112"/>
-      <c r="IN7" s="112"/>
-      <c r="IO7" s="112"/>
-      <c r="IP7" s="112"/>
-      <c r="IQ7" s="112"/>
-      <c r="IR7" s="112"/>
-      <c r="IS7" s="112"/>
-      <c r="IT7" s="112"/>
-      <c r="IU7" s="112"/>
-      <c r="IV7" s="112"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="111"/>
+      <c r="BD7" s="111"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="111"/>
+      <c r="BK7" s="111"/>
+      <c r="BL7" s="111"/>
+      <c r="BM7" s="111"/>
+      <c r="BN7" s="111"/>
+      <c r="BO7" s="111"/>
+      <c r="BP7" s="111"/>
+      <c r="BQ7" s="111"/>
+      <c r="BR7" s="111"/>
+      <c r="BS7" s="111"/>
+      <c r="BT7" s="111"/>
+      <c r="BU7" s="111"/>
+      <c r="BV7" s="111"/>
+      <c r="BW7" s="111"/>
+      <c r="BX7" s="111"/>
+      <c r="BY7" s="111"/>
+      <c r="BZ7" s="111"/>
+      <c r="CA7" s="111"/>
+      <c r="CB7" s="111"/>
+      <c r="CC7" s="111"/>
+      <c r="CD7" s="111"/>
+      <c r="CE7" s="111"/>
+      <c r="CF7" s="111"/>
+      <c r="CG7" s="111"/>
+      <c r="CH7" s="111"/>
+      <c r="CI7" s="111"/>
+      <c r="CJ7" s="111"/>
+      <c r="CK7" s="111"/>
+      <c r="CL7" s="111"/>
+      <c r="CM7" s="111"/>
+      <c r="CN7" s="111"/>
+      <c r="CO7" s="111"/>
+      <c r="CP7" s="111"/>
+      <c r="CQ7" s="111"/>
+      <c r="CR7" s="111"/>
+      <c r="CS7" s="111"/>
+      <c r="CT7" s="111"/>
+      <c r="CU7" s="111"/>
+      <c r="CV7" s="111"/>
+      <c r="CW7" s="111"/>
+      <c r="CX7" s="111"/>
+      <c r="CY7" s="111"/>
+      <c r="CZ7" s="111"/>
+      <c r="DA7" s="111"/>
+      <c r="DB7" s="111"/>
+      <c r="DC7" s="111"/>
+      <c r="DD7" s="111"/>
+      <c r="DE7" s="111"/>
+      <c r="DF7" s="111"/>
+      <c r="DG7" s="111"/>
+      <c r="DH7" s="111"/>
+      <c r="DI7" s="111"/>
+      <c r="DJ7" s="111"/>
+      <c r="DK7" s="111"/>
+      <c r="DL7" s="111"/>
+      <c r="DM7" s="111"/>
+      <c r="DN7" s="111"/>
+      <c r="DO7" s="111"/>
+      <c r="DP7" s="111"/>
+      <c r="DQ7" s="111"/>
+      <c r="DR7" s="111"/>
+      <c r="DS7" s="111"/>
+      <c r="DT7" s="111"/>
+      <c r="DU7" s="111"/>
+      <c r="DV7" s="111"/>
+      <c r="DW7" s="111"/>
+      <c r="DX7" s="111"/>
+      <c r="DY7" s="111"/>
+      <c r="DZ7" s="111"/>
+      <c r="EA7" s="111"/>
+      <c r="EB7" s="111"/>
+      <c r="EC7" s="111"/>
+      <c r="ED7" s="111"/>
+      <c r="EE7" s="111"/>
+      <c r="EF7" s="111"/>
+      <c r="EG7" s="111"/>
+      <c r="EH7" s="111"/>
+      <c r="EI7" s="111"/>
+      <c r="EJ7" s="111"/>
+      <c r="EK7" s="111"/>
+      <c r="EL7" s="111"/>
+      <c r="EM7" s="111"/>
+      <c r="EN7" s="111"/>
+      <c r="EO7" s="111"/>
+      <c r="EP7" s="111"/>
+      <c r="EQ7" s="111"/>
+      <c r="ER7" s="111"/>
+      <c r="ES7" s="111"/>
+      <c r="ET7" s="111"/>
+      <c r="EU7" s="111"/>
+      <c r="EV7" s="111"/>
+      <c r="EW7" s="111"/>
+      <c r="EX7" s="111"/>
+      <c r="EY7" s="111"/>
+      <c r="EZ7" s="111"/>
+      <c r="FA7" s="111"/>
+      <c r="FB7" s="111"/>
+      <c r="FC7" s="111"/>
+      <c r="FD7" s="111"/>
+      <c r="FE7" s="111"/>
+      <c r="FF7" s="111"/>
+      <c r="FG7" s="111"/>
+      <c r="FH7" s="111"/>
+      <c r="FI7" s="111"/>
+      <c r="FJ7" s="111"/>
+      <c r="FK7" s="111"/>
+      <c r="FL7" s="111"/>
+      <c r="FM7" s="111"/>
+      <c r="FN7" s="111"/>
+      <c r="FO7" s="111"/>
+      <c r="FP7" s="111"/>
+      <c r="FQ7" s="111"/>
+      <c r="FR7" s="111"/>
+      <c r="FS7" s="111"/>
+      <c r="FT7" s="111"/>
+      <c r="FU7" s="111"/>
+      <c r="FV7" s="111"/>
+      <c r="FW7" s="111"/>
+      <c r="FX7" s="111"/>
+      <c r="FY7" s="111"/>
+      <c r="FZ7" s="111"/>
+      <c r="GA7" s="111"/>
+      <c r="GB7" s="111"/>
+      <c r="GC7" s="111"/>
+      <c r="GD7" s="111"/>
+      <c r="GE7" s="111"/>
+      <c r="GF7" s="111"/>
+      <c r="GG7" s="111"/>
+      <c r="GH7" s="111"/>
+      <c r="GI7" s="111"/>
+      <c r="GJ7" s="111"/>
+      <c r="GK7" s="111"/>
+      <c r="GL7" s="111"/>
+      <c r="GM7" s="111"/>
+      <c r="GN7" s="111"/>
+      <c r="GO7" s="111"/>
+      <c r="GP7" s="111"/>
+      <c r="GQ7" s="111"/>
+      <c r="GR7" s="111"/>
+      <c r="GS7" s="111"/>
+      <c r="GT7" s="111"/>
+      <c r="GU7" s="111"/>
+      <c r="GV7" s="111"/>
+      <c r="GW7" s="111"/>
+      <c r="GX7" s="111"/>
+      <c r="GY7" s="111"/>
+      <c r="GZ7" s="111"/>
+      <c r="HA7" s="111"/>
+      <c r="HB7" s="111"/>
+      <c r="HC7" s="111"/>
+      <c r="HD7" s="111"/>
+      <c r="HE7" s="111"/>
+      <c r="HF7" s="111"/>
+      <c r="HG7" s="111"/>
+      <c r="HH7" s="111"/>
+      <c r="HI7" s="111"/>
+      <c r="HJ7" s="111"/>
+      <c r="HK7" s="111"/>
+      <c r="HL7" s="111"/>
+      <c r="HM7" s="111"/>
+      <c r="HN7" s="111"/>
+      <c r="HO7" s="111"/>
+      <c r="HP7" s="111"/>
+      <c r="HQ7" s="111"/>
+      <c r="HR7" s="111"/>
+      <c r="HS7" s="111"/>
+      <c r="HT7" s="111"/>
+      <c r="HU7" s="111"/>
+      <c r="HV7" s="111"/>
+      <c r="HW7" s="111"/>
+      <c r="HX7" s="111"/>
+      <c r="HY7" s="111"/>
+      <c r="HZ7" s="111"/>
+      <c r="IA7" s="111"/>
+      <c r="IB7" s="111"/>
+      <c r="IC7" s="111"/>
+      <c r="ID7" s="111"/>
+      <c r="IE7" s="111"/>
+      <c r="IF7" s="111"/>
+      <c r="IG7" s="111"/>
+      <c r="IH7" s="111"/>
+      <c r="II7" s="111"/>
+      <c r="IJ7" s="111"/>
+      <c r="IK7" s="111"/>
+      <c r="IL7" s="111"/>
+      <c r="IM7" s="111"/>
+      <c r="IN7" s="111"/>
+      <c r="IO7" s="111"/>
+      <c r="IP7" s="111"/>
+      <c r="IQ7" s="111"/>
+      <c r="IR7" s="111"/>
+      <c r="IS7" s="111"/>
+      <c r="IT7" s="111"/>
+      <c r="IU7" s="111"/>
+      <c r="IV7" s="111"/>
     </row>
     <row r="8" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="89">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>44</v>
@@ -21424,7 +21294,7 @@
       <c r="H8" s="22">
         <v>20</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="35"/>
@@ -21432,32 +21302,32 @@
         <f t="shared" si="0"/>
         <v>7.22</v>
       </c>
-      <c r="L8" s="105"/>
+      <c r="L8" s="104"/>
     </row>
     <row r="9" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="89">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22">
         <v>2.5</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="35"/>
@@ -21465,33 +21335,33 @@
         <f t="shared" si="0"/>
         <v>0.90249999999999997</v>
       </c>
-      <c r="L9" s="105"/>
+      <c r="L9" s="104"/>
     </row>
     <row r="10" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="89">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22">
         <f t="shared" ref="H10:H15" si="1">(2/244)*100</f>
         <v>0.81967213114754101</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="35"/>
@@ -21499,33 +21369,33 @@
         <f>H10*0.638</f>
         <v>0.5229508196721312</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="104"/>
     </row>
     <row r="11" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="89">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>167</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22">
         <f>((8+2+3+2+4+2+2+1+1+1)/244)*100</f>
         <v>10.655737704918032</v>
       </c>
-      <c r="I11" s="96" t="s">
+      <c r="I11" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="35"/>
@@ -21533,33 +21403,33 @@
         <f t="shared" ref="K11:K24" si="2">H11*0.638</f>
         <v>6.7983606557377048</v>
       </c>
-      <c r="L11" s="105"/>
-    </row>
-    <row r="12" spans="1:256" s="113" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="104"/>
+    </row>
+    <row r="12" spans="1:256" s="112" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="89">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="22">
         <f>((1+1+8)/244)*100</f>
         <v>4.0983606557377046</v>
       </c>
-      <c r="I12" s="96" t="s">
+      <c r="I12" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="35"/>
@@ -21567,267 +21437,267 @@
         <f t="shared" si="2"/>
         <v>2.6147540983606556</v>
       </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="112"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="112"/>
-      <c r="AI12" s="112"/>
-      <c r="AJ12" s="112"/>
-      <c r="AK12" s="112"/>
-      <c r="AL12" s="112"/>
-      <c r="AM12" s="112"/>
-      <c r="AN12" s="112"/>
-      <c r="AO12" s="112"/>
-      <c r="AP12" s="112"/>
-      <c r="AQ12" s="112"/>
-      <c r="AR12" s="112"/>
-      <c r="AS12" s="112"/>
-      <c r="AT12" s="112"/>
-      <c r="AU12" s="112"/>
-      <c r="AV12" s="112"/>
-      <c r="AW12" s="112"/>
-      <c r="AX12" s="112"/>
-      <c r="AY12" s="112"/>
-      <c r="AZ12" s="112"/>
-      <c r="BA12" s="112"/>
-      <c r="BB12" s="112"/>
-      <c r="BC12" s="112"/>
-      <c r="BD12" s="112"/>
-      <c r="BE12" s="112"/>
-      <c r="BF12" s="112"/>
-      <c r="BG12" s="112"/>
-      <c r="BH12" s="112"/>
-      <c r="BI12" s="112"/>
-      <c r="BJ12" s="112"/>
-      <c r="BK12" s="112"/>
-      <c r="BL12" s="112"/>
-      <c r="BM12" s="112"/>
-      <c r="BN12" s="112"/>
-      <c r="BO12" s="112"/>
-      <c r="BP12" s="112"/>
-      <c r="BQ12" s="112"/>
-      <c r="BR12" s="112"/>
-      <c r="BS12" s="112"/>
-      <c r="BT12" s="112"/>
-      <c r="BU12" s="112"/>
-      <c r="BV12" s="112"/>
-      <c r="BW12" s="112"/>
-      <c r="BX12" s="112"/>
-      <c r="BY12" s="112"/>
-      <c r="BZ12" s="112"/>
-      <c r="CA12" s="112"/>
-      <c r="CB12" s="112"/>
-      <c r="CC12" s="112"/>
-      <c r="CD12" s="112"/>
-      <c r="CE12" s="112"/>
-      <c r="CF12" s="112"/>
-      <c r="CG12" s="112"/>
-      <c r="CH12" s="112"/>
-      <c r="CI12" s="112"/>
-      <c r="CJ12" s="112"/>
-      <c r="CK12" s="112"/>
-      <c r="CL12" s="112"/>
-      <c r="CM12" s="112"/>
-      <c r="CN12" s="112"/>
-      <c r="CO12" s="112"/>
-      <c r="CP12" s="112"/>
-      <c r="CQ12" s="112"/>
-      <c r="CR12" s="112"/>
-      <c r="CS12" s="112"/>
-      <c r="CT12" s="112"/>
-      <c r="CU12" s="112"/>
-      <c r="CV12" s="112"/>
-      <c r="CW12" s="112"/>
-      <c r="CX12" s="112"/>
-      <c r="CY12" s="112"/>
-      <c r="CZ12" s="112"/>
-      <c r="DA12" s="112"/>
-      <c r="DB12" s="112"/>
-      <c r="DC12" s="112"/>
-      <c r="DD12" s="112"/>
-      <c r="DE12" s="112"/>
-      <c r="DF12" s="112"/>
-      <c r="DG12" s="112"/>
-      <c r="DH12" s="112"/>
-      <c r="DI12" s="112"/>
-      <c r="DJ12" s="112"/>
-      <c r="DK12" s="112"/>
-      <c r="DL12" s="112"/>
-      <c r="DM12" s="112"/>
-      <c r="DN12" s="112"/>
-      <c r="DO12" s="112"/>
-      <c r="DP12" s="112"/>
-      <c r="DQ12" s="112"/>
-      <c r="DR12" s="112"/>
-      <c r="DS12" s="112"/>
-      <c r="DT12" s="112"/>
-      <c r="DU12" s="112"/>
-      <c r="DV12" s="112"/>
-      <c r="DW12" s="112"/>
-      <c r="DX12" s="112"/>
-      <c r="DY12" s="112"/>
-      <c r="DZ12" s="112"/>
-      <c r="EA12" s="112"/>
-      <c r="EB12" s="112"/>
-      <c r="EC12" s="112"/>
-      <c r="ED12" s="112"/>
-      <c r="EE12" s="112"/>
-      <c r="EF12" s="112"/>
-      <c r="EG12" s="112"/>
-      <c r="EH12" s="112"/>
-      <c r="EI12" s="112"/>
-      <c r="EJ12" s="112"/>
-      <c r="EK12" s="112"/>
-      <c r="EL12" s="112"/>
-      <c r="EM12" s="112"/>
-      <c r="EN12" s="112"/>
-      <c r="EO12" s="112"/>
-      <c r="EP12" s="112"/>
-      <c r="EQ12" s="112"/>
-      <c r="ER12" s="112"/>
-      <c r="ES12" s="112"/>
-      <c r="ET12" s="112"/>
-      <c r="EU12" s="112"/>
-      <c r="EV12" s="112"/>
-      <c r="EW12" s="112"/>
-      <c r="EX12" s="112"/>
-      <c r="EY12" s="112"/>
-      <c r="EZ12" s="112"/>
-      <c r="FA12" s="112"/>
-      <c r="FB12" s="112"/>
-      <c r="FC12" s="112"/>
-      <c r="FD12" s="112"/>
-      <c r="FE12" s="112"/>
-      <c r="FF12" s="112"/>
-      <c r="FG12" s="112"/>
-      <c r="FH12" s="112"/>
-      <c r="FI12" s="112"/>
-      <c r="FJ12" s="112"/>
-      <c r="FK12" s="112"/>
-      <c r="FL12" s="112"/>
-      <c r="FM12" s="112"/>
-      <c r="FN12" s="112"/>
-      <c r="FO12" s="112"/>
-      <c r="FP12" s="112"/>
-      <c r="FQ12" s="112"/>
-      <c r="FR12" s="112"/>
-      <c r="FS12" s="112"/>
-      <c r="FT12" s="112"/>
-      <c r="FU12" s="112"/>
-      <c r="FV12" s="112"/>
-      <c r="FW12" s="112"/>
-      <c r="FX12" s="112"/>
-      <c r="FY12" s="112"/>
-      <c r="FZ12" s="112"/>
-      <c r="GA12" s="112"/>
-      <c r="GB12" s="112"/>
-      <c r="GC12" s="112"/>
-      <c r="GD12" s="112"/>
-      <c r="GE12" s="112"/>
-      <c r="GF12" s="112"/>
-      <c r="GG12" s="112"/>
-      <c r="GH12" s="112"/>
-      <c r="GI12" s="112"/>
-      <c r="GJ12" s="112"/>
-      <c r="GK12" s="112"/>
-      <c r="GL12" s="112"/>
-      <c r="GM12" s="112"/>
-      <c r="GN12" s="112"/>
-      <c r="GO12" s="112"/>
-      <c r="GP12" s="112"/>
-      <c r="GQ12" s="112"/>
-      <c r="GR12" s="112"/>
-      <c r="GS12" s="112"/>
-      <c r="GT12" s="112"/>
-      <c r="GU12" s="112"/>
-      <c r="GV12" s="112"/>
-      <c r="GW12" s="112"/>
-      <c r="GX12" s="112"/>
-      <c r="GY12" s="112"/>
-      <c r="GZ12" s="112"/>
-      <c r="HA12" s="112"/>
-      <c r="HB12" s="112"/>
-      <c r="HC12" s="112"/>
-      <c r="HD12" s="112"/>
-      <c r="HE12" s="112"/>
-      <c r="HF12" s="112"/>
-      <c r="HG12" s="112"/>
-      <c r="HH12" s="112"/>
-      <c r="HI12" s="112"/>
-      <c r="HJ12" s="112"/>
-      <c r="HK12" s="112"/>
-      <c r="HL12" s="112"/>
-      <c r="HM12" s="112"/>
-      <c r="HN12" s="112"/>
-      <c r="HO12" s="112"/>
-      <c r="HP12" s="112"/>
-      <c r="HQ12" s="112"/>
-      <c r="HR12" s="112"/>
-      <c r="HS12" s="112"/>
-      <c r="HT12" s="112"/>
-      <c r="HU12" s="112"/>
-      <c r="HV12" s="112"/>
-      <c r="HW12" s="112"/>
-      <c r="HX12" s="112"/>
-      <c r="HY12" s="112"/>
-      <c r="HZ12" s="112"/>
-      <c r="IA12" s="112"/>
-      <c r="IB12" s="112"/>
-      <c r="IC12" s="112"/>
-      <c r="ID12" s="112"/>
-      <c r="IE12" s="112"/>
-      <c r="IF12" s="112"/>
-      <c r="IG12" s="112"/>
-      <c r="IH12" s="112"/>
-      <c r="II12" s="112"/>
-      <c r="IJ12" s="112"/>
-      <c r="IK12" s="112"/>
-      <c r="IL12" s="112"/>
-      <c r="IM12" s="112"/>
-      <c r="IN12" s="112"/>
-      <c r="IO12" s="112"/>
-      <c r="IP12" s="112"/>
-      <c r="IQ12" s="112"/>
-      <c r="IR12" s="112"/>
-      <c r="IS12" s="112"/>
-      <c r="IT12" s="112"/>
-      <c r="IU12" s="112"/>
-      <c r="IV12" s="112"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
+      <c r="AK12" s="111"/>
+      <c r="AL12" s="111"/>
+      <c r="AM12" s="111"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
+      <c r="AX12" s="111"/>
+      <c r="AY12" s="111"/>
+      <c r="AZ12" s="111"/>
+      <c r="BA12" s="111"/>
+      <c r="BB12" s="111"/>
+      <c r="BC12" s="111"/>
+      <c r="BD12" s="111"/>
+      <c r="BE12" s="111"/>
+      <c r="BF12" s="111"/>
+      <c r="BG12" s="111"/>
+      <c r="BH12" s="111"/>
+      <c r="BI12" s="111"/>
+      <c r="BJ12" s="111"/>
+      <c r="BK12" s="111"/>
+      <c r="BL12" s="111"/>
+      <c r="BM12" s="111"/>
+      <c r="BN12" s="111"/>
+      <c r="BO12" s="111"/>
+      <c r="BP12" s="111"/>
+      <c r="BQ12" s="111"/>
+      <c r="BR12" s="111"/>
+      <c r="BS12" s="111"/>
+      <c r="BT12" s="111"/>
+      <c r="BU12" s="111"/>
+      <c r="BV12" s="111"/>
+      <c r="BW12" s="111"/>
+      <c r="BX12" s="111"/>
+      <c r="BY12" s="111"/>
+      <c r="BZ12" s="111"/>
+      <c r="CA12" s="111"/>
+      <c r="CB12" s="111"/>
+      <c r="CC12" s="111"/>
+      <c r="CD12" s="111"/>
+      <c r="CE12" s="111"/>
+      <c r="CF12" s="111"/>
+      <c r="CG12" s="111"/>
+      <c r="CH12" s="111"/>
+      <c r="CI12" s="111"/>
+      <c r="CJ12" s="111"/>
+      <c r="CK12" s="111"/>
+      <c r="CL12" s="111"/>
+      <c r="CM12" s="111"/>
+      <c r="CN12" s="111"/>
+      <c r="CO12" s="111"/>
+      <c r="CP12" s="111"/>
+      <c r="CQ12" s="111"/>
+      <c r="CR12" s="111"/>
+      <c r="CS12" s="111"/>
+      <c r="CT12" s="111"/>
+      <c r="CU12" s="111"/>
+      <c r="CV12" s="111"/>
+      <c r="CW12" s="111"/>
+      <c r="CX12" s="111"/>
+      <c r="CY12" s="111"/>
+      <c r="CZ12" s="111"/>
+      <c r="DA12" s="111"/>
+      <c r="DB12" s="111"/>
+      <c r="DC12" s="111"/>
+      <c r="DD12" s="111"/>
+      <c r="DE12" s="111"/>
+      <c r="DF12" s="111"/>
+      <c r="DG12" s="111"/>
+      <c r="DH12" s="111"/>
+      <c r="DI12" s="111"/>
+      <c r="DJ12" s="111"/>
+      <c r="DK12" s="111"/>
+      <c r="DL12" s="111"/>
+      <c r="DM12" s="111"/>
+      <c r="DN12" s="111"/>
+      <c r="DO12" s="111"/>
+      <c r="DP12" s="111"/>
+      <c r="DQ12" s="111"/>
+      <c r="DR12" s="111"/>
+      <c r="DS12" s="111"/>
+      <c r="DT12" s="111"/>
+      <c r="DU12" s="111"/>
+      <c r="DV12" s="111"/>
+      <c r="DW12" s="111"/>
+      <c r="DX12" s="111"/>
+      <c r="DY12" s="111"/>
+      <c r="DZ12" s="111"/>
+      <c r="EA12" s="111"/>
+      <c r="EB12" s="111"/>
+      <c r="EC12" s="111"/>
+      <c r="ED12" s="111"/>
+      <c r="EE12" s="111"/>
+      <c r="EF12" s="111"/>
+      <c r="EG12" s="111"/>
+      <c r="EH12" s="111"/>
+      <c r="EI12" s="111"/>
+      <c r="EJ12" s="111"/>
+      <c r="EK12" s="111"/>
+      <c r="EL12" s="111"/>
+      <c r="EM12" s="111"/>
+      <c r="EN12" s="111"/>
+      <c r="EO12" s="111"/>
+      <c r="EP12" s="111"/>
+      <c r="EQ12" s="111"/>
+      <c r="ER12" s="111"/>
+      <c r="ES12" s="111"/>
+      <c r="ET12" s="111"/>
+      <c r="EU12" s="111"/>
+      <c r="EV12" s="111"/>
+      <c r="EW12" s="111"/>
+      <c r="EX12" s="111"/>
+      <c r="EY12" s="111"/>
+      <c r="EZ12" s="111"/>
+      <c r="FA12" s="111"/>
+      <c r="FB12" s="111"/>
+      <c r="FC12" s="111"/>
+      <c r="FD12" s="111"/>
+      <c r="FE12" s="111"/>
+      <c r="FF12" s="111"/>
+      <c r="FG12" s="111"/>
+      <c r="FH12" s="111"/>
+      <c r="FI12" s="111"/>
+      <c r="FJ12" s="111"/>
+      <c r="FK12" s="111"/>
+      <c r="FL12" s="111"/>
+      <c r="FM12" s="111"/>
+      <c r="FN12" s="111"/>
+      <c r="FO12" s="111"/>
+      <c r="FP12" s="111"/>
+      <c r="FQ12" s="111"/>
+      <c r="FR12" s="111"/>
+      <c r="FS12" s="111"/>
+      <c r="FT12" s="111"/>
+      <c r="FU12" s="111"/>
+      <c r="FV12" s="111"/>
+      <c r="FW12" s="111"/>
+      <c r="FX12" s="111"/>
+      <c r="FY12" s="111"/>
+      <c r="FZ12" s="111"/>
+      <c r="GA12" s="111"/>
+      <c r="GB12" s="111"/>
+      <c r="GC12" s="111"/>
+      <c r="GD12" s="111"/>
+      <c r="GE12" s="111"/>
+      <c r="GF12" s="111"/>
+      <c r="GG12" s="111"/>
+      <c r="GH12" s="111"/>
+      <c r="GI12" s="111"/>
+      <c r="GJ12" s="111"/>
+      <c r="GK12" s="111"/>
+      <c r="GL12" s="111"/>
+      <c r="GM12" s="111"/>
+      <c r="GN12" s="111"/>
+      <c r="GO12" s="111"/>
+      <c r="GP12" s="111"/>
+      <c r="GQ12" s="111"/>
+      <c r="GR12" s="111"/>
+      <c r="GS12" s="111"/>
+      <c r="GT12" s="111"/>
+      <c r="GU12" s="111"/>
+      <c r="GV12" s="111"/>
+      <c r="GW12" s="111"/>
+      <c r="GX12" s="111"/>
+      <c r="GY12" s="111"/>
+      <c r="GZ12" s="111"/>
+      <c r="HA12" s="111"/>
+      <c r="HB12" s="111"/>
+      <c r="HC12" s="111"/>
+      <c r="HD12" s="111"/>
+      <c r="HE12" s="111"/>
+      <c r="HF12" s="111"/>
+      <c r="HG12" s="111"/>
+      <c r="HH12" s="111"/>
+      <c r="HI12" s="111"/>
+      <c r="HJ12" s="111"/>
+      <c r="HK12" s="111"/>
+      <c r="HL12" s="111"/>
+      <c r="HM12" s="111"/>
+      <c r="HN12" s="111"/>
+      <c r="HO12" s="111"/>
+      <c r="HP12" s="111"/>
+      <c r="HQ12" s="111"/>
+      <c r="HR12" s="111"/>
+      <c r="HS12" s="111"/>
+      <c r="HT12" s="111"/>
+      <c r="HU12" s="111"/>
+      <c r="HV12" s="111"/>
+      <c r="HW12" s="111"/>
+      <c r="HX12" s="111"/>
+      <c r="HY12" s="111"/>
+      <c r="HZ12" s="111"/>
+      <c r="IA12" s="111"/>
+      <c r="IB12" s="111"/>
+      <c r="IC12" s="111"/>
+      <c r="ID12" s="111"/>
+      <c r="IE12" s="111"/>
+      <c r="IF12" s="111"/>
+      <c r="IG12" s="111"/>
+      <c r="IH12" s="111"/>
+      <c r="II12" s="111"/>
+      <c r="IJ12" s="111"/>
+      <c r="IK12" s="111"/>
+      <c r="IL12" s="111"/>
+      <c r="IM12" s="111"/>
+      <c r="IN12" s="111"/>
+      <c r="IO12" s="111"/>
+      <c r="IP12" s="111"/>
+      <c r="IQ12" s="111"/>
+      <c r="IR12" s="111"/>
+      <c r="IS12" s="111"/>
+      <c r="IT12" s="111"/>
+      <c r="IU12" s="111"/>
+      <c r="IV12" s="111"/>
     </row>
     <row r="13" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="89">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>45</v>
@@ -21837,7 +21707,7 @@
         <f>((0.25+0.25+0.5)/244)*100</f>
         <v>0.4098360655737705</v>
       </c>
-      <c r="I13" s="96" t="s">
+      <c r="I13" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="35"/>
@@ -21845,23 +21715,23 @@
         <f t="shared" si="2"/>
         <v>0.2614754098360656</v>
       </c>
-      <c r="L13" s="105"/>
+      <c r="L13" s="104"/>
     </row>
     <row r="14" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="89">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>44</v>
@@ -21871,7 +21741,7 @@
         <f>((10+7+4+9+6+9+1.5+5+11)/244)*100</f>
         <v>25.614754098360653</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="35"/>
@@ -21879,33 +21749,33 @@
         <f t="shared" si="2"/>
         <v>16.342213114754095</v>
       </c>
-      <c r="L14" s="105"/>
-    </row>
-    <row r="15" spans="1:256" s="113" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="104"/>
+    </row>
+    <row r="15" spans="1:256" s="112" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="89">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
         <v>0.81967213114754101</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="35"/>
@@ -21913,277 +21783,277 @@
         <f t="shared" si="2"/>
         <v>0.5229508196721312</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="112"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="112"/>
-      <c r="Y15" s="112"/>
-      <c r="Z15" s="112"/>
-      <c r="AA15" s="112"/>
-      <c r="AB15" s="112"/>
-      <c r="AC15" s="112"/>
-      <c r="AD15" s="112"/>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="112"/>
-      <c r="AG15" s="112"/>
-      <c r="AH15" s="112"/>
-      <c r="AI15" s="112"/>
-      <c r="AJ15" s="112"/>
-      <c r="AK15" s="112"/>
-      <c r="AL15" s="112"/>
-      <c r="AM15" s="112"/>
-      <c r="AN15" s="112"/>
-      <c r="AO15" s="112"/>
-      <c r="AP15" s="112"/>
-      <c r="AQ15" s="112"/>
-      <c r="AR15" s="112"/>
-      <c r="AS15" s="112"/>
-      <c r="AT15" s="112"/>
-      <c r="AU15" s="112"/>
-      <c r="AV15" s="112"/>
-      <c r="AW15" s="112"/>
-      <c r="AX15" s="112"/>
-      <c r="AY15" s="112"/>
-      <c r="AZ15" s="112"/>
-      <c r="BA15" s="112"/>
-      <c r="BB15" s="112"/>
-      <c r="BC15" s="112"/>
-      <c r="BD15" s="112"/>
-      <c r="BE15" s="112"/>
-      <c r="BF15" s="112"/>
-      <c r="BG15" s="112"/>
-      <c r="BH15" s="112"/>
-      <c r="BI15" s="112"/>
-      <c r="BJ15" s="112"/>
-      <c r="BK15" s="112"/>
-      <c r="BL15" s="112"/>
-      <c r="BM15" s="112"/>
-      <c r="BN15" s="112"/>
-      <c r="BO15" s="112"/>
-      <c r="BP15" s="112"/>
-      <c r="BQ15" s="112"/>
-      <c r="BR15" s="112"/>
-      <c r="BS15" s="112"/>
-      <c r="BT15" s="112"/>
-      <c r="BU15" s="112"/>
-      <c r="BV15" s="112"/>
-      <c r="BW15" s="112"/>
-      <c r="BX15" s="112"/>
-      <c r="BY15" s="112"/>
-      <c r="BZ15" s="112"/>
-      <c r="CA15" s="112"/>
-      <c r="CB15" s="112"/>
-      <c r="CC15" s="112"/>
-      <c r="CD15" s="112"/>
-      <c r="CE15" s="112"/>
-      <c r="CF15" s="112"/>
-      <c r="CG15" s="112"/>
-      <c r="CH15" s="112"/>
-      <c r="CI15" s="112"/>
-      <c r="CJ15" s="112"/>
-      <c r="CK15" s="112"/>
-      <c r="CL15" s="112"/>
-      <c r="CM15" s="112"/>
-      <c r="CN15" s="112"/>
-      <c r="CO15" s="112"/>
-      <c r="CP15" s="112"/>
-      <c r="CQ15" s="112"/>
-      <c r="CR15" s="112"/>
-      <c r="CS15" s="112"/>
-      <c r="CT15" s="112"/>
-      <c r="CU15" s="112"/>
-      <c r="CV15" s="112"/>
-      <c r="CW15" s="112"/>
-      <c r="CX15" s="112"/>
-      <c r="CY15" s="112"/>
-      <c r="CZ15" s="112"/>
-      <c r="DA15" s="112"/>
-      <c r="DB15" s="112"/>
-      <c r="DC15" s="112"/>
-      <c r="DD15" s="112"/>
-      <c r="DE15" s="112"/>
-      <c r="DF15" s="112"/>
-      <c r="DG15" s="112"/>
-      <c r="DH15" s="112"/>
-      <c r="DI15" s="112"/>
-      <c r="DJ15" s="112"/>
-      <c r="DK15" s="112"/>
-      <c r="DL15" s="112"/>
-      <c r="DM15" s="112"/>
-      <c r="DN15" s="112"/>
-      <c r="DO15" s="112"/>
-      <c r="DP15" s="112"/>
-      <c r="DQ15" s="112"/>
-      <c r="DR15" s="112"/>
-      <c r="DS15" s="112"/>
-      <c r="DT15" s="112"/>
-      <c r="DU15" s="112"/>
-      <c r="DV15" s="112"/>
-      <c r="DW15" s="112"/>
-      <c r="DX15" s="112"/>
-      <c r="DY15" s="112"/>
-      <c r="DZ15" s="112"/>
-      <c r="EA15" s="112"/>
-      <c r="EB15" s="112"/>
-      <c r="EC15" s="112"/>
-      <c r="ED15" s="112"/>
-      <c r="EE15" s="112"/>
-      <c r="EF15" s="112"/>
-      <c r="EG15" s="112"/>
-      <c r="EH15" s="112"/>
-      <c r="EI15" s="112"/>
-      <c r="EJ15" s="112"/>
-      <c r="EK15" s="112"/>
-      <c r="EL15" s="112"/>
-      <c r="EM15" s="112"/>
-      <c r="EN15" s="112"/>
-      <c r="EO15" s="112"/>
-      <c r="EP15" s="112"/>
-      <c r="EQ15" s="112"/>
-      <c r="ER15" s="112"/>
-      <c r="ES15" s="112"/>
-      <c r="ET15" s="112"/>
-      <c r="EU15" s="112"/>
-      <c r="EV15" s="112"/>
-      <c r="EW15" s="112"/>
-      <c r="EX15" s="112"/>
-      <c r="EY15" s="112"/>
-      <c r="EZ15" s="112"/>
-      <c r="FA15" s="112"/>
-      <c r="FB15" s="112"/>
-      <c r="FC15" s="112"/>
-      <c r="FD15" s="112"/>
-      <c r="FE15" s="112"/>
-      <c r="FF15" s="112"/>
-      <c r="FG15" s="112"/>
-      <c r="FH15" s="112"/>
-      <c r="FI15" s="112"/>
-      <c r="FJ15" s="112"/>
-      <c r="FK15" s="112"/>
-      <c r="FL15" s="112"/>
-      <c r="FM15" s="112"/>
-      <c r="FN15" s="112"/>
-      <c r="FO15" s="112"/>
-      <c r="FP15" s="112"/>
-      <c r="FQ15" s="112"/>
-      <c r="FR15" s="112"/>
-      <c r="FS15" s="112"/>
-      <c r="FT15" s="112"/>
-      <c r="FU15" s="112"/>
-      <c r="FV15" s="112"/>
-      <c r="FW15" s="112"/>
-      <c r="FX15" s="112"/>
-      <c r="FY15" s="112"/>
-      <c r="FZ15" s="112"/>
-      <c r="GA15" s="112"/>
-      <c r="GB15" s="112"/>
-      <c r="GC15" s="112"/>
-      <c r="GD15" s="112"/>
-      <c r="GE15" s="112"/>
-      <c r="GF15" s="112"/>
-      <c r="GG15" s="112"/>
-      <c r="GH15" s="112"/>
-      <c r="GI15" s="112"/>
-      <c r="GJ15" s="112"/>
-      <c r="GK15" s="112"/>
-      <c r="GL15" s="112"/>
-      <c r="GM15" s="112"/>
-      <c r="GN15" s="112"/>
-      <c r="GO15" s="112"/>
-      <c r="GP15" s="112"/>
-      <c r="GQ15" s="112"/>
-      <c r="GR15" s="112"/>
-      <c r="GS15" s="112"/>
-      <c r="GT15" s="112"/>
-      <c r="GU15" s="112"/>
-      <c r="GV15" s="112"/>
-      <c r="GW15" s="112"/>
-      <c r="GX15" s="112"/>
-      <c r="GY15" s="112"/>
-      <c r="GZ15" s="112"/>
-      <c r="HA15" s="112"/>
-      <c r="HB15" s="112"/>
-      <c r="HC15" s="112"/>
-      <c r="HD15" s="112"/>
-      <c r="HE15" s="112"/>
-      <c r="HF15" s="112"/>
-      <c r="HG15" s="112"/>
-      <c r="HH15" s="112"/>
-      <c r="HI15" s="112"/>
-      <c r="HJ15" s="112"/>
-      <c r="HK15" s="112"/>
-      <c r="HL15" s="112"/>
-      <c r="HM15" s="112"/>
-      <c r="HN15" s="112"/>
-      <c r="HO15" s="112"/>
-      <c r="HP15" s="112"/>
-      <c r="HQ15" s="112"/>
-      <c r="HR15" s="112"/>
-      <c r="HS15" s="112"/>
-      <c r="HT15" s="112"/>
-      <c r="HU15" s="112"/>
-      <c r="HV15" s="112"/>
-      <c r="HW15" s="112"/>
-      <c r="HX15" s="112"/>
-      <c r="HY15" s="112"/>
-      <c r="HZ15" s="112"/>
-      <c r="IA15" s="112"/>
-      <c r="IB15" s="112"/>
-      <c r="IC15" s="112"/>
-      <c r="ID15" s="112"/>
-      <c r="IE15" s="112"/>
-      <c r="IF15" s="112"/>
-      <c r="IG15" s="112"/>
-      <c r="IH15" s="112"/>
-      <c r="II15" s="112"/>
-      <c r="IJ15" s="112"/>
-      <c r="IK15" s="112"/>
-      <c r="IL15" s="112"/>
-      <c r="IM15" s="112"/>
-      <c r="IN15" s="112"/>
-      <c r="IO15" s="112"/>
-      <c r="IP15" s="112"/>
-      <c r="IQ15" s="112"/>
-      <c r="IR15" s="112"/>
-      <c r="IS15" s="112"/>
-      <c r="IT15" s="112"/>
-      <c r="IU15" s="112"/>
-      <c r="IV15" s="112"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="111"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
+      <c r="AX15" s="111"/>
+      <c r="AY15" s="111"/>
+      <c r="AZ15" s="111"/>
+      <c r="BA15" s="111"/>
+      <c r="BB15" s="111"/>
+      <c r="BC15" s="111"/>
+      <c r="BD15" s="111"/>
+      <c r="BE15" s="111"/>
+      <c r="BF15" s="111"/>
+      <c r="BG15" s="111"/>
+      <c r="BH15" s="111"/>
+      <c r="BI15" s="111"/>
+      <c r="BJ15" s="111"/>
+      <c r="BK15" s="111"/>
+      <c r="BL15" s="111"/>
+      <c r="BM15" s="111"/>
+      <c r="BN15" s="111"/>
+      <c r="BO15" s="111"/>
+      <c r="BP15" s="111"/>
+      <c r="BQ15" s="111"/>
+      <c r="BR15" s="111"/>
+      <c r="BS15" s="111"/>
+      <c r="BT15" s="111"/>
+      <c r="BU15" s="111"/>
+      <c r="BV15" s="111"/>
+      <c r="BW15" s="111"/>
+      <c r="BX15" s="111"/>
+      <c r="BY15" s="111"/>
+      <c r="BZ15" s="111"/>
+      <c r="CA15" s="111"/>
+      <c r="CB15" s="111"/>
+      <c r="CC15" s="111"/>
+      <c r="CD15" s="111"/>
+      <c r="CE15" s="111"/>
+      <c r="CF15" s="111"/>
+      <c r="CG15" s="111"/>
+      <c r="CH15" s="111"/>
+      <c r="CI15" s="111"/>
+      <c r="CJ15" s="111"/>
+      <c r="CK15" s="111"/>
+      <c r="CL15" s="111"/>
+      <c r="CM15" s="111"/>
+      <c r="CN15" s="111"/>
+      <c r="CO15" s="111"/>
+      <c r="CP15" s="111"/>
+      <c r="CQ15" s="111"/>
+      <c r="CR15" s="111"/>
+      <c r="CS15" s="111"/>
+      <c r="CT15" s="111"/>
+      <c r="CU15" s="111"/>
+      <c r="CV15" s="111"/>
+      <c r="CW15" s="111"/>
+      <c r="CX15" s="111"/>
+      <c r="CY15" s="111"/>
+      <c r="CZ15" s="111"/>
+      <c r="DA15" s="111"/>
+      <c r="DB15" s="111"/>
+      <c r="DC15" s="111"/>
+      <c r="DD15" s="111"/>
+      <c r="DE15" s="111"/>
+      <c r="DF15" s="111"/>
+      <c r="DG15" s="111"/>
+      <c r="DH15" s="111"/>
+      <c r="DI15" s="111"/>
+      <c r="DJ15" s="111"/>
+      <c r="DK15" s="111"/>
+      <c r="DL15" s="111"/>
+      <c r="DM15" s="111"/>
+      <c r="DN15" s="111"/>
+      <c r="DO15" s="111"/>
+      <c r="DP15" s="111"/>
+      <c r="DQ15" s="111"/>
+      <c r="DR15" s="111"/>
+      <c r="DS15" s="111"/>
+      <c r="DT15" s="111"/>
+      <c r="DU15" s="111"/>
+      <c r="DV15" s="111"/>
+      <c r="DW15" s="111"/>
+      <c r="DX15" s="111"/>
+      <c r="DY15" s="111"/>
+      <c r="DZ15" s="111"/>
+      <c r="EA15" s="111"/>
+      <c r="EB15" s="111"/>
+      <c r="EC15" s="111"/>
+      <c r="ED15" s="111"/>
+      <c r="EE15" s="111"/>
+      <c r="EF15" s="111"/>
+      <c r="EG15" s="111"/>
+      <c r="EH15" s="111"/>
+      <c r="EI15" s="111"/>
+      <c r="EJ15" s="111"/>
+      <c r="EK15" s="111"/>
+      <c r="EL15" s="111"/>
+      <c r="EM15" s="111"/>
+      <c r="EN15" s="111"/>
+      <c r="EO15" s="111"/>
+      <c r="EP15" s="111"/>
+      <c r="EQ15" s="111"/>
+      <c r="ER15" s="111"/>
+      <c r="ES15" s="111"/>
+      <c r="ET15" s="111"/>
+      <c r="EU15" s="111"/>
+      <c r="EV15" s="111"/>
+      <c r="EW15" s="111"/>
+      <c r="EX15" s="111"/>
+      <c r="EY15" s="111"/>
+      <c r="EZ15" s="111"/>
+      <c r="FA15" s="111"/>
+      <c r="FB15" s="111"/>
+      <c r="FC15" s="111"/>
+      <c r="FD15" s="111"/>
+      <c r="FE15" s="111"/>
+      <c r="FF15" s="111"/>
+      <c r="FG15" s="111"/>
+      <c r="FH15" s="111"/>
+      <c r="FI15" s="111"/>
+      <c r="FJ15" s="111"/>
+      <c r="FK15" s="111"/>
+      <c r="FL15" s="111"/>
+      <c r="FM15" s="111"/>
+      <c r="FN15" s="111"/>
+      <c r="FO15" s="111"/>
+      <c r="FP15" s="111"/>
+      <c r="FQ15" s="111"/>
+      <c r="FR15" s="111"/>
+      <c r="FS15" s="111"/>
+      <c r="FT15" s="111"/>
+      <c r="FU15" s="111"/>
+      <c r="FV15" s="111"/>
+      <c r="FW15" s="111"/>
+      <c r="FX15" s="111"/>
+      <c r="FY15" s="111"/>
+      <c r="FZ15" s="111"/>
+      <c r="GA15" s="111"/>
+      <c r="GB15" s="111"/>
+      <c r="GC15" s="111"/>
+      <c r="GD15" s="111"/>
+      <c r="GE15" s="111"/>
+      <c r="GF15" s="111"/>
+      <c r="GG15" s="111"/>
+      <c r="GH15" s="111"/>
+      <c r="GI15" s="111"/>
+      <c r="GJ15" s="111"/>
+      <c r="GK15" s="111"/>
+      <c r="GL15" s="111"/>
+      <c r="GM15" s="111"/>
+      <c r="GN15" s="111"/>
+      <c r="GO15" s="111"/>
+      <c r="GP15" s="111"/>
+      <c r="GQ15" s="111"/>
+      <c r="GR15" s="111"/>
+      <c r="GS15" s="111"/>
+      <c r="GT15" s="111"/>
+      <c r="GU15" s="111"/>
+      <c r="GV15" s="111"/>
+      <c r="GW15" s="111"/>
+      <c r="GX15" s="111"/>
+      <c r="GY15" s="111"/>
+      <c r="GZ15" s="111"/>
+      <c r="HA15" s="111"/>
+      <c r="HB15" s="111"/>
+      <c r="HC15" s="111"/>
+      <c r="HD15" s="111"/>
+      <c r="HE15" s="111"/>
+      <c r="HF15" s="111"/>
+      <c r="HG15" s="111"/>
+      <c r="HH15" s="111"/>
+      <c r="HI15" s="111"/>
+      <c r="HJ15" s="111"/>
+      <c r="HK15" s="111"/>
+      <c r="HL15" s="111"/>
+      <c r="HM15" s="111"/>
+      <c r="HN15" s="111"/>
+      <c r="HO15" s="111"/>
+      <c r="HP15" s="111"/>
+      <c r="HQ15" s="111"/>
+      <c r="HR15" s="111"/>
+      <c r="HS15" s="111"/>
+      <c r="HT15" s="111"/>
+      <c r="HU15" s="111"/>
+      <c r="HV15" s="111"/>
+      <c r="HW15" s="111"/>
+      <c r="HX15" s="111"/>
+      <c r="HY15" s="111"/>
+      <c r="HZ15" s="111"/>
+      <c r="IA15" s="111"/>
+      <c r="IB15" s="111"/>
+      <c r="IC15" s="111"/>
+      <c r="ID15" s="111"/>
+      <c r="IE15" s="111"/>
+      <c r="IF15" s="111"/>
+      <c r="IG15" s="111"/>
+      <c r="IH15" s="111"/>
+      <c r="II15" s="111"/>
+      <c r="IJ15" s="111"/>
+      <c r="IK15" s="111"/>
+      <c r="IL15" s="111"/>
+      <c r="IM15" s="111"/>
+      <c r="IN15" s="111"/>
+      <c r="IO15" s="111"/>
+      <c r="IP15" s="111"/>
+      <c r="IQ15" s="111"/>
+      <c r="IR15" s="111"/>
+      <c r="IS15" s="111"/>
+      <c r="IT15" s="111"/>
+      <c r="IU15" s="111"/>
+      <c r="IV15" s="111"/>
     </row>
     <row r="16" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="89">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22">
         <f t="shared" ref="H16:H17" si="3">0.8</f>
         <v>0.8</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="95" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="35"/>
@@ -22191,33 +22061,33 @@
         <f t="shared" si="2"/>
         <v>0.51040000000000008</v>
       </c>
-      <c r="L16" s="105"/>
+      <c r="L16" s="104"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="89">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>157</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="22">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J17" s="35"/>
@@ -22225,23 +22095,23 @@
         <f t="shared" si="2"/>
         <v>0.51040000000000008</v>
       </c>
-      <c r="L17" s="105"/>
+      <c r="L17" s="104"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="89">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>46</v>
@@ -22251,7 +22121,7 @@
         <f>((1.5+1)/244)*100</f>
         <v>1.0245901639344261</v>
       </c>
-      <c r="I18" s="96" t="s">
+      <c r="I18" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="35"/>
@@ -22259,33 +22129,33 @@
         <f t="shared" si="2"/>
         <v>0.65368852459016391</v>
       </c>
-      <c r="L18" s="105"/>
+      <c r="L18" s="104"/>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="89">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="F19" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="22">
         <f>((5+8)/244)*100</f>
         <v>5.3278688524590159</v>
       </c>
-      <c r="I19" s="96" t="s">
+      <c r="I19" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="35"/>
@@ -22293,33 +22163,33 @@
         <f t="shared" si="2"/>
         <v>3.3991803278688524</v>
       </c>
-      <c r="L19" s="105"/>
+      <c r="L19" s="104"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="89">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="22">
         <f>(0.5/244)*100</f>
         <v>0.20491803278688525</v>
       </c>
-      <c r="I20" s="96" t="s">
+      <c r="I20" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="35"/>
@@ -22327,33 +22197,33 @@
         <f t="shared" si="2"/>
         <v>0.1307377049180328</v>
       </c>
-      <c r="L20" s="105"/>
+      <c r="L20" s="104"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="89">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="22">
         <f>((2+11+5.5)/244)*100</f>
         <v>7.581967213114754</v>
       </c>
-      <c r="I21" s="96" t="s">
+      <c r="I21" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="35"/>
@@ -22361,23 +22231,23 @@
         <f t="shared" si="2"/>
         <v>4.8372950819672127</v>
       </c>
-      <c r="L21" s="105"/>
+      <c r="L21" s="104"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="89">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>47</v>
@@ -22387,7 +22257,7 @@
         <f>((0.5+1)/244)*100</f>
         <v>0.61475409836065575</v>
       </c>
-      <c r="I22" s="96" t="s">
+      <c r="I22" s="95" t="s">
         <v>132</v>
       </c>
       <c r="J22" s="35"/>
@@ -22395,33 +22265,33 @@
         <f t="shared" si="2"/>
         <v>0.39221311475409837</v>
       </c>
-      <c r="L22" s="105"/>
+      <c r="L22" s="104"/>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" s="89">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="22">
         <f>(1/244)*100</f>
         <v>0.4098360655737705</v>
       </c>
-      <c r="I23" s="96" t="s">
+      <c r="I23" s="95" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="35"/>
@@ -22429,7 +22299,7 @@
         <f t="shared" si="2"/>
         <v>0.2614754098360656</v>
       </c>
-      <c r="L23" s="105"/>
+      <c r="L23" s="104"/>
     </row>
     <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -22440,13 +22310,13 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="96"/>
+      <c r="I24" s="95"/>
       <c r="J24" s="35"/>
       <c r="K24" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="105"/>
+      <c r="L24" s="104"/>
     </row>
     <row r="25" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
@@ -22458,7 +22328,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="97"/>
+      <c r="J25" s="96"/>
     </row>
     <row r="26" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
@@ -22490,10 +22360,10 @@
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="85" t="s">
         <v>154</v>
-      </c>
-      <c r="F28" s="85" t="s">
-        <v>155</v>
       </c>
       <c r="G28" s="21">
         <f>K5+K12</f>
@@ -22511,10 +22381,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="G29" s="21">
         <f>K7+K15</f>
@@ -22532,10 +22402,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>170</v>
       </c>
       <c r="G30" s="21">
         <f>K10</f>
@@ -22553,10 +22423,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>167</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="G31" s="21">
         <f>SUM(K5)</f>
@@ -22574,10 +22444,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" s="21">
         <f>K16</f>
@@ -22595,7 +22465,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>47</v>
@@ -22616,10 +22486,10 @@
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="21">
         <f>K2+K19</f>
@@ -22637,10 +22507,10 @@
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="G35" s="21">
         <f>K3+K21</f>
@@ -22658,10 +22528,10 @@
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="G36" s="21">
         <f>K4</f>
@@ -22679,10 +22549,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>157</v>
       </c>
       <c r="G37" s="21">
         <f>K6+K17</f>
@@ -22700,7 +22570,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>44</v>
@@ -22721,10 +22591,10 @@
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="G39" s="21">
         <f>K9</f>
@@ -22742,7 +22612,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>45</v>
@@ -22763,7 +22633,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>46</v>
@@ -22784,10 +22654,10 @@
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="G42" s="21">
         <f>K20</f>
@@ -22805,10 +22675,10 @@
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G43" s="21">
         <f>K23</f>
@@ -22840,10 +22710,10 @@
       <c r="E45" s="2"/>
       <c r="F45" s="20"/>
       <c r="G45" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="24"/>
@@ -22855,7 +22725,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
       <c r="F46" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" s="21">
         <f>SUM(G28:G32)</f>
@@ -22875,7 +22745,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G47" s="21">
         <f>G33</f>
@@ -22895,7 +22765,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
       <c r="F48" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="21">
         <f>SUM(G34:G43)</f>
